--- a/SAE_3_01/fichiers genere/S6AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S6AFI.xlsx
@@ -3295,10 +3295,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -3315,10 +3327,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -3335,10 +3359,22 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S6AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S6AFI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="860" windowWidth="30080" windowHeight="19720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
@@ -46,20 +46,20 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
@@ -302,38 +302,38 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,273 +733,273 @@
   </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="15.28515625" customWidth="1" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="n"/>
-      <c r="B1" s="28" t="n"/>
-      <c r="C1" s="28" t="n"/>
-      <c r="D1" s="28" t="n"/>
-      <c r="E1" s="28" t="n"/>
-      <c r="F1" s="28" t="n"/>
-      <c r="G1" s="28" t="n"/>
-      <c r="H1" s="28" t="n"/>
-      <c r="I1" s="28" t="n"/>
-      <c r="J1" s="28" t="n"/>
-      <c r="K1" s="28" t="n"/>
-      <c r="L1" s="28" t="n"/>
-      <c r="M1" s="28" t="n"/>
-      <c r="N1" s="28" t="n"/>
-      <c r="O1" s="28" t="n"/>
-      <c r="P1" s="28" t="n"/>
-      <c r="Q1" s="28" t="n"/>
-      <c r="R1" s="28" t="n"/>
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="inlineStr">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Ressource</t>
         </is>
       </c>
-      <c r="B2" s="28" t="n"/>
-      <c r="E2" s="28" t="n"/>
-      <c r="F2" s="42" t="inlineStr">
+      <c r="B2" s="27" t="n"/>
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Responsable</t>
         </is>
       </c>
-      <c r="G2" s="28" t="n"/>
-      <c r="H2" s="28" t="n"/>
-      <c r="I2" s="28" t="n"/>
-      <c r="J2" s="28" t="n"/>
-      <c r="K2" s="28" t="n"/>
-      <c r="L2" s="28" t="n"/>
-      <c r="M2" s="28" t="n"/>
-      <c r="N2" s="28" t="n"/>
-      <c r="O2" s="28" t="n"/>
-      <c r="P2" s="28" t="n"/>
-      <c r="Q2" s="28" t="n"/>
-      <c r="R2" s="28" t="n"/>
+      <c r="G2" s="27" t="n"/>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="n"/>
-      <c r="B3" s="28" t="n"/>
-      <c r="C3" s="28" t="n"/>
-      <c r="D3" s="28" t="n"/>
-      <c r="E3" s="28" t="n"/>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="28" t="n"/>
-      <c r="H3" s="28" t="n"/>
-      <c r="I3" s="28" t="n"/>
-      <c r="J3" s="28" t="n"/>
-      <c r="K3" s="28" t="n"/>
-      <c r="L3" s="28" t="n"/>
-      <c r="M3" s="28" t="n"/>
-      <c r="N3" s="28" t="n"/>
-      <c r="O3" s="28" t="n"/>
-      <c r="P3" s="28" t="n"/>
-      <c r="Q3" s="28" t="n"/>
-      <c r="R3" s="28" t="n"/>
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Maquette</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="28" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="28" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="28" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="E4" s="28" t="n"/>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="28" t="n"/>
-      <c r="H4" s="28" t="n"/>
-      <c r="I4" s="28" t="n"/>
-      <c r="J4" s="28" t="n"/>
-      <c r="K4" s="28" t="n"/>
-      <c r="L4" s="28" t="n"/>
-      <c r="M4" s="28" t="n"/>
-      <c r="N4" s="28" t="n"/>
-      <c r="O4" s="28" t="n"/>
-      <c r="P4" s="28" t="n"/>
-      <c r="Q4" s="28" t="n"/>
-      <c r="R4" s="28" t="n"/>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
-      <c r="B5" s="28" t="n"/>
-      <c r="C5" s="28" t="n"/>
-      <c r="D5" s="28" t="n"/>
-      <c r="E5" s="28" t="n"/>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="28" t="n"/>
-      <c r="H5" s="28" t="n"/>
-      <c r="I5" s="28" t="n"/>
-      <c r="J5" s="28" t="n"/>
-      <c r="K5" s="28" t="n"/>
-      <c r="L5" s="28" t="n"/>
-      <c r="M5" s="28" t="n"/>
-      <c r="N5" s="28" t="n"/>
-      <c r="O5" s="28" t="n"/>
-      <c r="P5" s="28" t="n"/>
-      <c r="Q5" s="28" t="n"/>
-      <c r="R5" s="28" t="n"/>
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n"/>
+      <c r="C5" s="27" t="n"/>
+      <c r="D5" s="27" t="n"/>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
-      <c r="B6" s="28" t="n"/>
-      <c r="C6" s="28" t="n"/>
-      <c r="D6" s="28" t="n"/>
-      <c r="E6" s="28" t="n"/>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="28" t="n"/>
-      <c r="H6" s="28" t="n"/>
-      <c r="I6" s="28" t="n"/>
-      <c r="J6" s="28" t="n"/>
-      <c r="K6" s="28" t="n"/>
-      <c r="L6" s="28" t="n"/>
-      <c r="M6" s="28" t="n"/>
-      <c r="N6" s="28" t="n"/>
-      <c r="O6" s="28" t="n"/>
-      <c r="P6" s="28" t="n"/>
-      <c r="Q6" s="28" t="n"/>
-      <c r="R6" s="28" t="n"/>
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>Intervenants</t>
         </is>
       </c>
-      <c r="B7" s="29" t="inlineStr">
+      <c r="B7" s="28" t="inlineStr">
         <is>
           <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
         </is>
       </c>
-      <c r="M7" s="28" t="n"/>
-      <c r="N7" s="28" t="n"/>
-      <c r="O7" s="28" t="n"/>
-      <c r="P7" s="28" t="n"/>
-      <c r="Q7" s="28" t="n"/>
-      <c r="R7" s="28" t="n"/>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
-      <c r="C8" s="28" t="n"/>
-      <c r="D8" s="28" t="n"/>
-      <c r="E8" s="28" t="n"/>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="28" t="n"/>
-      <c r="H8" s="28" t="n"/>
-      <c r="I8" s="28" t="n"/>
-      <c r="J8" s="28" t="n"/>
-      <c r="K8" s="28" t="n"/>
-      <c r="L8" s="28" t="n"/>
-      <c r="M8" s="28" t="n"/>
-      <c r="N8" s="28" t="n"/>
-      <c r="O8" s="28" t="n"/>
-      <c r="P8" s="28" t="n"/>
-      <c r="Q8" s="28" t="n"/>
-      <c r="R8" s="28" t="n"/>
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="n"/>
-      <c r="C9" s="28" t="n"/>
-      <c r="D9" s="28" t="n"/>
-      <c r="E9" s="28" t="n"/>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="28" t="n"/>
-      <c r="H9" s="28" t="n"/>
-      <c r="I9" s="28" t="n"/>
-      <c r="J9" s="28" t="n"/>
-      <c r="K9" s="28" t="n"/>
-      <c r="L9" s="28" t="n"/>
-      <c r="M9" s="28" t="n"/>
-      <c r="N9" s="28" t="n"/>
-      <c r="O9" s="28" t="n"/>
-      <c r="P9" s="28" t="n"/>
-      <c r="Q9" s="28" t="n"/>
-      <c r="R9" s="28" t="n"/>
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="n"/>
-      <c r="C10" s="28" t="n"/>
-      <c r="D10" s="28" t="n"/>
-      <c r="E10" s="28" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="n"/>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="28" t="n"/>
-      <c r="J10" s="28" t="n"/>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="28" t="n"/>
-      <c r="N10" s="28" t="n"/>
-      <c r="O10" s="28" t="n"/>
-      <c r="P10" s="28" t="n"/>
-      <c r="Q10" s="28" t="n"/>
-      <c r="R10" s="28" t="n"/>
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="n"/>
-      <c r="B11" s="28" t="n"/>
-      <c r="C11" s="28" t="n"/>
-      <c r="D11" s="28" t="n"/>
-      <c r="E11" s="28" t="n"/>
-      <c r="F11" s="28" t="n"/>
-      <c r="G11" s="28" t="n"/>
-      <c r="H11" s="28" t="n"/>
-      <c r="I11" s="28" t="n"/>
-      <c r="J11" s="28" t="n"/>
-      <c r="K11" s="28" t="n"/>
-      <c r="L11" s="28" t="n"/>
-      <c r="M11" s="28" t="n"/>
-      <c r="N11" s="28" t="n"/>
-      <c r="O11" s="28" t="n"/>
-      <c r="P11" s="28" t="n"/>
-      <c r="Q11" s="28" t="n"/>
-      <c r="R11" s="28" t="n"/>
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="n"/>
-      <c r="B12" s="28" t="n"/>
-      <c r="C12" s="28" t="n"/>
-      <c r="D12" s="28" t="n"/>
-      <c r="E12" s="28" t="n"/>
-      <c r="F12" s="28" t="n"/>
-      <c r="G12" s="28" t="n"/>
-      <c r="H12" s="28" t="n"/>
-      <c r="I12" s="28" t="n"/>
-      <c r="J12" s="28" t="n"/>
-      <c r="K12" s="28" t="n"/>
-      <c r="L12" s="28" t="n"/>
-      <c r="M12" s="28" t="n"/>
-      <c r="N12" s="28" t="n"/>
-      <c r="O12" s="28" t="n"/>
-      <c r="P12" s="28" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="28" t="n"/>
-    </row>
-    <row r="13" ht="41.25" customHeight="1">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Répartition</t>
@@ -1011,22 +1011,22 @@
 Groupes</t>
         </is>
       </c>
-      <c r="C13" s="28" t="n"/>
-      <c r="D13" s="28" t="n"/>
-      <c r="E13" s="28" t="n"/>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="28" t="n"/>
-      <c r="H13" s="28" t="n"/>
-      <c r="I13" s="28" t="n"/>
-      <c r="J13" s="28" t="n"/>
-      <c r="K13" s="28" t="n"/>
-      <c r="L13" s="28" t="n"/>
-      <c r="M13" s="28" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="28" t="n"/>
-      <c r="P13" s="28" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="28" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -1035,8 +1035,8 @@
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
-      <c r="C14" s="28" t="n"/>
-      <c r="D14" s="30" t="inlineStr">
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
         <is>
           <t>Possibilité de changer de groupe de TDs au fil du module</t>
         </is>
@@ -1045,26 +1045,26 @@
       <c r="F14" s="57" t="n"/>
       <c r="G14" s="57" t="n"/>
       <c r="H14" s="57" t="n"/>
-      <c r="I14" s="32" t="inlineStr">
+      <c r="I14" s="31" t="inlineStr">
         <is>
           <t>si besoin</t>
         </is>
       </c>
       <c r="J14" s="58" t="n"/>
-      <c r="K14" s="28" t="n"/>
-      <c r="L14" s="28" t="n"/>
-      <c r="M14" s="28" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="28" t="n"/>
-      <c r="P14" s="28" t="n"/>
-      <c r="Q14" s="28" t="n"/>
-      <c r="R14" s="28" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="n"/>
-      <c r="C15" s="28" t="n"/>
-      <c r="D15" s="33" t="inlineStr">
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
         <is>
           <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
         </is>
@@ -1073,40 +1073,40 @@
       <c r="F15" s="59" t="n"/>
       <c r="G15" s="59" t="n"/>
       <c r="H15" s="59" t="n"/>
-      <c r="I15" s="35" t="inlineStr">
+      <c r="I15" s="26" t="inlineStr">
         <is>
           <t>Au choix</t>
         </is>
       </c>
       <c r="J15" s="60" t="n"/>
-      <c r="K15" s="28" t="n"/>
-      <c r="L15" s="28" t="n"/>
-      <c r="M15" s="28" t="n"/>
-      <c r="N15" s="28" t="n"/>
-      <c r="O15" s="28" t="n"/>
-      <c r="P15" s="28" t="n"/>
-      <c r="Q15" s="28" t="n"/>
-      <c r="R15" s="28" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="11" t="n"/>
-      <c r="C16" s="28" t="n"/>
-      <c r="D16" s="28" t="n"/>
-      <c r="E16" s="28" t="n"/>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="28" t="n"/>
-      <c r="H16" s="28" t="n"/>
-      <c r="I16" s="28" t="n"/>
-      <c r="J16" s="28" t="n"/>
-      <c r="K16" s="28" t="n"/>
-      <c r="L16" s="28" t="n"/>
-      <c r="M16" s="28" t="n"/>
-      <c r="N16" s="28" t="n"/>
-      <c r="O16" s="28" t="n"/>
-      <c r="P16" s="28" t="n"/>
-      <c r="Q16" s="28" t="n"/>
-      <c r="R16" s="28" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -1115,114 +1115,114 @@
         </is>
       </c>
       <c r="B17" s="12" t="n"/>
-      <c r="C17" s="28" t="n"/>
-      <c r="D17" s="28" t="n"/>
-      <c r="E17" s="28" t="n"/>
-      <c r="F17" s="28" t="n"/>
-      <c r="G17" s="28" t="n"/>
-      <c r="H17" s="28" t="n"/>
-      <c r="I17" s="28" t="n"/>
-      <c r="J17" s="28" t="n"/>
-      <c r="K17" s="28" t="n"/>
-      <c r="L17" s="28" t="n"/>
-      <c r="M17" s="28" t="n"/>
-      <c r="N17" s="28" t="n"/>
-      <c r="O17" s="28" t="n"/>
-      <c r="P17" s="28" t="n"/>
-      <c r="Q17" s="28" t="n"/>
-      <c r="R17" s="28" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="n"/>
       <c r="B18" s="13" t="n"/>
-      <c r="C18" s="28" t="n"/>
-      <c r="D18" s="28" t="n"/>
-      <c r="E18" s="28" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="28" t="n"/>
-      <c r="H18" s="28" t="n"/>
-      <c r="I18" s="28" t="n"/>
-      <c r="J18" s="28" t="n"/>
-      <c r="K18" s="28" t="n"/>
-      <c r="L18" s="28" t="n"/>
-      <c r="M18" s="28" t="n"/>
-      <c r="N18" s="28" t="n"/>
-      <c r="O18" s="28" t="n"/>
-      <c r="P18" s="28" t="n"/>
-      <c r="Q18" s="28" t="n"/>
-      <c r="R18" s="28" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n"/>
       <c r="B19" s="13" t="n"/>
-      <c r="C19" s="28" t="n"/>
-      <c r="D19" s="39" t="inlineStr">
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
         <is>
           <t>Test(s)</t>
         </is>
       </c>
-      <c r="E19" s="37" t="n"/>
+      <c r="E19" s="34" t="n"/>
       <c r="F19" s="58" t="n"/>
-      <c r="G19" s="28" t="n"/>
-      <c r="H19" s="28" t="n"/>
-      <c r="I19" s="28" t="n"/>
-      <c r="J19" s="28" t="n"/>
-      <c r="K19" s="28" t="n"/>
-      <c r="L19" s="28" t="n"/>
-      <c r="M19" s="28" t="n"/>
-      <c r="N19" s="28" t="n"/>
-      <c r="O19" s="28" t="n"/>
-      <c r="P19" s="28" t="n"/>
-      <c r="Q19" s="28" t="n"/>
-      <c r="R19" s="28" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="n"/>
       <c r="B20" s="13" t="n"/>
-      <c r="C20" s="28" t="n"/>
-      <c r="D20" s="41" t="inlineStr">
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
         <is>
           <t>Durée</t>
         </is>
       </c>
-      <c r="E20" s="38" t="n"/>
+      <c r="E20" s="35" t="n"/>
       <c r="F20" s="61" t="n"/>
-      <c r="G20" s="28" t="n"/>
-      <c r="H20" s="28" t="n"/>
-      <c r="I20" s="28" t="n"/>
-      <c r="J20" s="28" t="n"/>
-      <c r="K20" s="28" t="n"/>
-      <c r="L20" s="28" t="n"/>
-      <c r="M20" s="28" t="n"/>
-      <c r="N20" s="28" t="n"/>
-      <c r="O20" s="28" t="n"/>
-      <c r="P20" s="28" t="n"/>
-      <c r="Q20" s="28" t="n"/>
-      <c r="R20" s="28" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="n"/>
       <c r="B21" s="10" t="n"/>
-      <c r="C21" s="28" t="n"/>
-      <c r="D21" s="41" t="inlineStr">
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
         <is>
           <t>Salle</t>
         </is>
       </c>
-      <c r="E21" s="38" t="n"/>
+      <c r="E21" s="35" t="n"/>
       <c r="F21" s="61" t="n"/>
-      <c r="G21" s="28" t="n"/>
-      <c r="H21" s="28" t="n"/>
-      <c r="I21" s="28" t="n"/>
-      <c r="J21" s="28" t="n"/>
-      <c r="K21" s="28" t="n"/>
-      <c r="L21" s="28" t="n"/>
-      <c r="M21" s="28" t="n"/>
-      <c r="N21" s="28" t="n"/>
-      <c r="O21" s="28" t="n"/>
-      <c r="P21" s="28" t="n"/>
-      <c r="Q21" s="28" t="n"/>
-      <c r="R21" s="28" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -1231,104 +1231,104 @@
         </is>
       </c>
       <c r="B22" s="12" t="n"/>
-      <c r="C22" s="28" t="n"/>
-      <c r="D22" s="33" t="inlineStr">
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
         <is>
           <t>Payé en</t>
         </is>
       </c>
-      <c r="E22" s="35" t="n"/>
+      <c r="E22" s="26" t="n"/>
       <c r="F22" s="60" t="n"/>
-      <c r="G22" s="28" t="n"/>
-      <c r="H22" s="28" t="n"/>
-      <c r="I22" s="28" t="n"/>
-      <c r="J22" s="28" t="n"/>
-      <c r="K22" s="28" t="n"/>
-      <c r="L22" s="28" t="n"/>
-      <c r="M22" s="28" t="n"/>
-      <c r="N22" s="28" t="n"/>
-      <c r="O22" s="28" t="n"/>
-      <c r="P22" s="28" t="n"/>
-      <c r="Q22" s="28" t="n"/>
-      <c r="R22" s="28" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n"/>
       <c r="B23" s="8" t="n"/>
-      <c r="C23" s="28" t="n"/>
-      <c r="D23" s="28" t="n"/>
-      <c r="E23" s="28" t="n"/>
-      <c r="F23" s="28" t="n"/>
-      <c r="G23" s="28" t="n"/>
-      <c r="H23" s="28" t="n"/>
-      <c r="I23" s="28" t="n"/>
-      <c r="J23" s="28" t="n"/>
-      <c r="K23" s="28" t="n"/>
-      <c r="L23" s="28" t="n"/>
-      <c r="M23" s="28" t="n"/>
-      <c r="N23" s="28" t="n"/>
-      <c r="O23" s="28" t="n"/>
-      <c r="P23" s="28" t="n"/>
-      <c r="Q23" s="28" t="n"/>
-      <c r="R23" s="28" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n"/>
       <c r="B24" s="8" t="n"/>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="28" t="n"/>
-      <c r="E24" s="28" t="n"/>
-      <c r="F24" s="28" t="n"/>
-      <c r="G24" s="28" t="n"/>
-      <c r="H24" s="28" t="n"/>
-      <c r="I24" s="28" t="n"/>
-      <c r="J24" s="28" t="n"/>
-      <c r="K24" s="28" t="n"/>
-      <c r="L24" s="28" t="n"/>
-      <c r="M24" s="28" t="n"/>
-      <c r="N24" s="28" t="n"/>
-      <c r="O24" s="28" t="n"/>
-      <c r="P24" s="28" t="n"/>
-      <c r="Q24" s="28" t="n"/>
-      <c r="R24" s="28" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n"/>
       <c r="B25" s="8" t="n"/>
-      <c r="C25" s="28" t="n"/>
-      <c r="D25" s="28" t="n"/>
-      <c r="G25" s="28" t="n"/>
-      <c r="H25" s="28" t="n"/>
-      <c r="I25" s="28" t="n"/>
-      <c r="J25" s="28" t="n"/>
-      <c r="K25" s="28" t="n"/>
-      <c r="L25" s="28" t="n"/>
-      <c r="M25" s="28" t="n"/>
-      <c r="N25" s="28" t="n"/>
-      <c r="O25" s="28" t="n"/>
-      <c r="P25" s="28" t="n"/>
-      <c r="Q25" s="28" t="n"/>
-      <c r="R25" s="28" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="n"/>
       <c r="B26" s="10" t="n"/>
-      <c r="C26" s="28" t="n"/>
-      <c r="D26" s="28" t="n"/>
-      <c r="E26" s="28" t="n"/>
-      <c r="F26" s="28" t="n"/>
-      <c r="G26" s="28" t="n"/>
-      <c r="H26" s="28" t="n"/>
-      <c r="I26" s="28" t="n"/>
-      <c r="J26" s="28" t="n"/>
-      <c r="K26" s="28" t="n"/>
-      <c r="L26" s="28" t="n"/>
-      <c r="M26" s="28" t="n"/>
-      <c r="N26" s="28" t="n"/>
-      <c r="O26" s="28" t="n"/>
-      <c r="P26" s="28" t="n"/>
-      <c r="Q26" s="28" t="n"/>
-      <c r="R26" s="28" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -1337,31 +1337,31 @@
         </is>
       </c>
       <c r="B27" s="12" t="n"/>
-      <c r="C27" s="28" t="n"/>
-      <c r="D27" s="39" t="inlineStr">
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
         <is>
           <t>Autres informations :</t>
         </is>
       </c>
       <c r="E27" s="57" t="n"/>
-      <c r="F27" s="36" t="n"/>
-      <c r="G27" s="36" t="n"/>
-      <c r="H27" s="37" t="n"/>
-      <c r="I27" s="28" t="n"/>
-      <c r="J27" s="28" t="n"/>
-      <c r="K27" s="28" t="n"/>
-      <c r="L27" s="28" t="n"/>
-      <c r="M27" s="28" t="n"/>
-      <c r="N27" s="28" t="n"/>
-      <c r="O27" s="28" t="n"/>
-      <c r="P27" s="28" t="n"/>
-      <c r="Q27" s="28" t="n"/>
-      <c r="R27" s="28" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n"/>
       <c r="B28" s="13" t="n"/>
-      <c r="C28" s="28" t="n"/>
+      <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
           <t>* tous les intervenants, vactaires compris, surveillent l’examen
@@ -1370,525 +1370,525 @@
         </is>
       </c>
       <c r="H28" s="61" t="n"/>
-      <c r="I28" s="28" t="n"/>
-      <c r="J28" s="28" t="n"/>
-      <c r="K28" s="28" t="n"/>
-      <c r="L28" s="28" t="n"/>
-      <c r="M28" s="28" t="n"/>
-      <c r="N28" s="28" t="n"/>
-      <c r="O28" s="28" t="n"/>
-      <c r="P28" s="28" t="n"/>
-      <c r="Q28" s="28" t="n"/>
-      <c r="R28" s="28" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n"/>
       <c r="B29" s="13" t="n"/>
-      <c r="C29" s="28" t="n"/>
+      <c r="C29" s="27" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
-      <c r="I29" s="28" t="n"/>
-      <c r="J29" s="28" t="n"/>
-      <c r="K29" s="28" t="n"/>
-      <c r="L29" s="28" t="n"/>
-      <c r="M29" s="28" t="n"/>
-      <c r="N29" s="28" t="n"/>
-      <c r="O29" s="28" t="n"/>
-      <c r="P29" s="28" t="n"/>
-      <c r="Q29" s="28" t="n"/>
-      <c r="R29" s="28" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n"/>
       <c r="B30" s="13" t="n"/>
-      <c r="C30" s="28" t="n"/>
+      <c r="C30" s="27" t="n"/>
       <c r="D30" s="63" t="n"/>
       <c r="H30" s="61" t="n"/>
-      <c r="I30" s="28" t="n"/>
-      <c r="J30" s="28" t="n"/>
-      <c r="K30" s="28" t="n"/>
-      <c r="L30" s="28" t="n"/>
-      <c r="M30" s="28" t="n"/>
-      <c r="N30" s="28" t="n"/>
-      <c r="O30" s="28" t="n"/>
-      <c r="P30" s="28" t="n"/>
-      <c r="Q30" s="28" t="n"/>
-      <c r="R30" s="28" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="10" t="n"/>
       <c r="B31" s="10" t="n"/>
-      <c r="C31" s="28" t="n"/>
+      <c r="C31" s="27" t="n"/>
       <c r="D31" s="64" t="n"/>
       <c r="E31" s="59" t="n"/>
       <c r="F31" s="59" t="n"/>
       <c r="G31" s="59" t="n"/>
       <c r="H31" s="60" t="n"/>
-      <c r="I31" s="28" t="n"/>
-      <c r="J31" s="28" t="n"/>
-      <c r="K31" s="28" t="n"/>
-      <c r="L31" s="28" t="n"/>
-      <c r="M31" s="28" t="n"/>
-      <c r="N31" s="28" t="n"/>
-      <c r="O31" s="28" t="n"/>
-      <c r="P31" s="28" t="n"/>
-      <c r="Q31" s="28" t="n"/>
-      <c r="R31" s="28" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="28" t="n"/>
-      <c r="B32" s="28" t="n"/>
-      <c r="C32" s="28" t="n"/>
-      <c r="D32" s="28" t="n"/>
-      <c r="E32" s="28" t="n"/>
-      <c r="F32" s="28" t="n"/>
-      <c r="G32" s="28" t="n"/>
-      <c r="H32" s="28" t="n"/>
-      <c r="I32" s="28" t="n"/>
-      <c r="J32" s="28" t="n"/>
-      <c r="K32" s="28" t="n"/>
-      <c r="L32" s="28" t="n"/>
-      <c r="M32" s="28" t="n"/>
-      <c r="N32" s="28" t="n"/>
-      <c r="O32" s="28" t="n"/>
-      <c r="P32" s="28" t="n"/>
-      <c r="Q32" s="28" t="n"/>
-      <c r="R32" s="28" t="n"/>
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="inlineStr">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>Organisation détaillée</t>
         </is>
       </c>
-      <c r="B33" s="29" t="inlineStr">
+      <c r="B33" s="28" t="inlineStr">
         <is>
           <t>(toutes les informations doivent figurer ici)</t>
         </is>
       </c>
-      <c r="C33" s="28" t="n"/>
-      <c r="D33" s="28" t="n"/>
-      <c r="E33" s="28" t="n"/>
-      <c r="F33" s="28" t="n"/>
-      <c r="G33" s="28" t="n"/>
-      <c r="H33" s="28" t="n"/>
-      <c r="I33" s="28" t="n"/>
-      <c r="J33" s="28" t="n"/>
-      <c r="K33" s="28" t="n"/>
-      <c r="L33" s="28" t="n"/>
-      <c r="M33" s="28" t="n"/>
-      <c r="N33" s="28" t="n"/>
-      <c r="O33" s="28" t="n"/>
-      <c r="P33" s="28" t="n"/>
-      <c r="Q33" s="28" t="n"/>
-      <c r="R33" s="28" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="28" t="n"/>
-      <c r="B34" s="29" t="n"/>
-      <c r="C34" s="28" t="n"/>
-      <c r="D34" s="28" t="n"/>
-      <c r="E34" s="28" t="n"/>
-      <c r="F34" s="28" t="n"/>
-      <c r="G34" s="28" t="n"/>
-      <c r="H34" s="28" t="n"/>
-      <c r="I34" s="28" t="n"/>
-      <c r="J34" s="28" t="n"/>
-      <c r="K34" s="28" t="n"/>
-      <c r="L34" s="28" t="n"/>
-      <c r="M34" s="28" t="n"/>
-      <c r="N34" s="28" t="n"/>
-      <c r="O34" s="28" t="n"/>
-      <c r="P34" s="28" t="n"/>
-      <c r="Q34" s="28" t="n"/>
-      <c r="R34" s="28" t="n"/>
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
-      <c r="E35" s="28" t="n"/>
-      <c r="F35" s="28" t="n"/>
-      <c r="G35" s="28" t="n"/>
-      <c r="H35" s="28" t="n"/>
-      <c r="I35" s="28" t="n"/>
-      <c r="J35" s="28" t="n"/>
-      <c r="K35" s="28" t="n"/>
-      <c r="L35" s="28" t="n"/>
-      <c r="M35" s="28" t="n"/>
-      <c r="N35" s="28" t="n"/>
-      <c r="O35" s="28" t="n"/>
-      <c r="P35" s="28" t="n"/>
-      <c r="Q35" s="28" t="n"/>
-      <c r="R35" s="28" t="n"/>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
-      <c r="E36" s="28" t="n"/>
-      <c r="F36" s="28" t="n"/>
-      <c r="G36" s="28" t="n"/>
-      <c r="H36" s="28" t="n"/>
-      <c r="I36" s="28" t="n"/>
-      <c r="J36" s="28" t="n"/>
-      <c r="K36" s="28" t="n"/>
-      <c r="L36" s="28" t="n"/>
-      <c r="M36" s="28" t="n"/>
-      <c r="N36" s="28" t="n"/>
-      <c r="O36" s="28" t="n"/>
-      <c r="P36" s="28" t="n"/>
-      <c r="Q36" s="28" t="n"/>
-      <c r="R36" s="28" t="n"/>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
-      <c r="E37" s="28" t="n"/>
-      <c r="F37" s="28" t="n"/>
-      <c r="G37" s="28" t="n"/>
-      <c r="H37" s="28" t="n"/>
-      <c r="I37" s="28" t="n"/>
-      <c r="J37" s="28" t="n"/>
-      <c r="K37" s="28" t="n"/>
-      <c r="L37" s="28" t="n"/>
-      <c r="M37" s="28" t="n"/>
-      <c r="N37" s="28" t="n"/>
-      <c r="O37" s="28" t="n"/>
-      <c r="P37" s="28" t="n"/>
-      <c r="Q37" s="28" t="n"/>
-      <c r="R37" s="28" t="n"/>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
-      <c r="E38" s="28" t="n"/>
-      <c r="F38" s="28" t="n"/>
-      <c r="G38" s="28" t="n"/>
-      <c r="H38" s="28" t="n"/>
-      <c r="I38" s="28" t="n"/>
-      <c r="J38" s="28" t="n"/>
-      <c r="K38" s="28" t="n"/>
-      <c r="L38" s="28" t="n"/>
-      <c r="M38" s="28" t="n"/>
-      <c r="N38" s="28" t="n"/>
-      <c r="O38" s="28" t="n"/>
-      <c r="P38" s="28" t="n"/>
-      <c r="Q38" s="28" t="n"/>
-      <c r="R38" s="28" t="n"/>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
-      <c r="E39" s="28" t="n"/>
-      <c r="F39" s="28" t="n"/>
-      <c r="G39" s="28" t="n"/>
-      <c r="H39" s="28" t="n"/>
-      <c r="I39" s="28" t="n"/>
-      <c r="J39" s="28" t="n"/>
-      <c r="K39" s="28" t="n"/>
-      <c r="L39" s="28" t="n"/>
-      <c r="M39" s="28" t="n"/>
-      <c r="N39" s="28" t="n"/>
-      <c r="O39" s="28" t="n"/>
-      <c r="P39" s="28" t="n"/>
-      <c r="Q39" s="28" t="n"/>
-      <c r="R39" s="28" t="n"/>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
-      <c r="E40" s="28" t="n"/>
-      <c r="F40" s="28" t="n"/>
-      <c r="G40" s="28" t="n"/>
-      <c r="H40" s="28" t="n"/>
-      <c r="I40" s="28" t="n"/>
-      <c r="J40" s="28" t="n"/>
-      <c r="K40" s="28" t="n"/>
-      <c r="L40" s="28" t="n"/>
-      <c r="M40" s="28" t="n"/>
-      <c r="N40" s="28" t="n"/>
-      <c r="O40" s="28" t="n"/>
-      <c r="P40" s="28" t="n"/>
-      <c r="Q40" s="28" t="n"/>
-      <c r="R40" s="28" t="n"/>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
-      <c r="E41" s="28" t="n"/>
-      <c r="F41" s="28" t="n"/>
-      <c r="G41" s="28" t="n"/>
-      <c r="H41" s="28" t="n"/>
-      <c r="I41" s="28" t="n"/>
-      <c r="J41" s="28" t="n"/>
-      <c r="K41" s="28" t="n"/>
-      <c r="L41" s="28" t="n"/>
-      <c r="M41" s="28" t="n"/>
-      <c r="N41" s="28" t="n"/>
-      <c r="O41" s="28" t="n"/>
-      <c r="P41" s="28" t="n"/>
-      <c r="Q41" s="28" t="n"/>
-      <c r="R41" s="28" t="n"/>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
-      <c r="E42" s="28" t="n"/>
-      <c r="F42" s="28" t="n"/>
-      <c r="G42" s="28" t="n"/>
-      <c r="H42" s="28" t="n"/>
-      <c r="I42" s="28" t="n"/>
-      <c r="J42" s="28" t="n"/>
-      <c r="K42" s="28" t="n"/>
-      <c r="L42" s="28" t="n"/>
-      <c r="M42" s="28" t="n"/>
-      <c r="N42" s="28" t="n"/>
-      <c r="O42" s="28" t="n"/>
-      <c r="P42" s="28" t="n"/>
-      <c r="Q42" s="28" t="n"/>
-      <c r="R42" s="28" t="n"/>
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
-      <c r="E43" s="28" t="n"/>
-      <c r="F43" s="28" t="n"/>
-      <c r="G43" s="28" t="n"/>
-      <c r="H43" s="28" t="n"/>
-      <c r="I43" s="28" t="n"/>
-      <c r="J43" s="28" t="n"/>
-      <c r="K43" s="28" t="n"/>
-      <c r="L43" s="28" t="n"/>
-      <c r="M43" s="28" t="n"/>
-      <c r="N43" s="28" t="n"/>
-      <c r="O43" s="28" t="n"/>
-      <c r="P43" s="28" t="n"/>
-      <c r="Q43" s="28" t="n"/>
-      <c r="R43" s="28" t="n"/>
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
-      <c r="E44" s="28" t="n"/>
-      <c r="F44" s="28" t="n"/>
-      <c r="G44" s="28" t="n"/>
-      <c r="H44" s="28" t="n"/>
-      <c r="I44" s="28" t="n"/>
-      <c r="J44" s="28" t="n"/>
-      <c r="K44" s="28" t="n"/>
-      <c r="L44" s="28" t="n"/>
-      <c r="M44" s="28" t="n"/>
-      <c r="N44" s="28" t="n"/>
-      <c r="O44" s="28" t="n"/>
-      <c r="P44" s="28" t="n"/>
-      <c r="Q44" s="28" t="n"/>
-      <c r="R44" s="28" t="n"/>
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
-      <c r="B45" s="28" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
-      <c r="E45" s="28" t="n"/>
-      <c r="F45" s="28" t="n"/>
-      <c r="G45" s="28" t="n"/>
-      <c r="H45" s="28" t="n"/>
-      <c r="I45" s="28" t="n"/>
-      <c r="J45" s="28" t="n"/>
-      <c r="K45" s="28" t="n"/>
-      <c r="L45" s="28" t="n"/>
-      <c r="M45" s="28" t="n"/>
-      <c r="N45" s="28" t="n"/>
-      <c r="O45" s="28" t="n"/>
-      <c r="P45" s="28" t="n"/>
-      <c r="Q45" s="28" t="n"/>
-      <c r="R45" s="28" t="n"/>
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
-      <c r="B46" s="28" t="n"/>
-      <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
-      <c r="E46" s="28" t="n"/>
-      <c r="F46" s="28" t="n"/>
-      <c r="G46" s="28" t="n"/>
-      <c r="H46" s="28" t="n"/>
-      <c r="I46" s="28" t="n"/>
-      <c r="J46" s="28" t="n"/>
-      <c r="K46" s="28" t="n"/>
-      <c r="L46" s="28" t="n"/>
-      <c r="M46" s="28" t="n"/>
-      <c r="N46" s="28" t="n"/>
-      <c r="O46" s="28" t="n"/>
-      <c r="P46" s="28" t="n"/>
-      <c r="Q46" s="28" t="n"/>
-      <c r="R46" s="28" t="n"/>
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
-      <c r="E47" s="28" t="n"/>
-      <c r="F47" s="28" t="n"/>
-      <c r="G47" s="28" t="n"/>
-      <c r="H47" s="28" t="n"/>
-      <c r="I47" s="28" t="n"/>
-      <c r="J47" s="28" t="n"/>
-      <c r="K47" s="28" t="n"/>
-      <c r="L47" s="28" t="n"/>
-      <c r="M47" s="28" t="n"/>
-      <c r="N47" s="28" t="n"/>
-      <c r="O47" s="28" t="n"/>
-      <c r="P47" s="28" t="n"/>
-      <c r="Q47" s="28" t="n"/>
-      <c r="R47" s="28" t="n"/>
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="n"/>
-      <c r="B48" s="28" t="n"/>
-      <c r="C48" s="28" t="n"/>
-      <c r="D48" s="28" t="n"/>
-      <c r="E48" s="28" t="n"/>
-      <c r="F48" s="28" t="n"/>
-      <c r="G48" s="28" t="n"/>
-      <c r="H48" s="28" t="n"/>
-      <c r="I48" s="28" t="n"/>
-      <c r="J48" s="28" t="n"/>
-      <c r="K48" s="28" t="n"/>
-      <c r="L48" s="28" t="n"/>
-      <c r="M48" s="28" t="n"/>
-      <c r="N48" s="28" t="n"/>
-      <c r="O48" s="28" t="n"/>
-      <c r="P48" s="28" t="n"/>
-      <c r="Q48" s="28" t="n"/>
-      <c r="R48" s="28" t="n"/>
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="n"/>
-      <c r="B49" s="28" t="n"/>
-      <c r="C49" s="28" t="n"/>
-      <c r="D49" s="28" t="n"/>
-      <c r="E49" s="28" t="n"/>
-      <c r="F49" s="28" t="n"/>
-      <c r="G49" s="28" t="n"/>
-      <c r="H49" s="28" t="n"/>
-      <c r="I49" s="28" t="n"/>
-      <c r="J49" s="28" t="n"/>
-      <c r="K49" s="28" t="n"/>
-      <c r="L49" s="28" t="n"/>
-      <c r="M49" s="28" t="n"/>
-      <c r="N49" s="28" t="n"/>
-      <c r="O49" s="28" t="n"/>
-      <c r="P49" s="28" t="n"/>
-      <c r="Q49" s="28" t="n"/>
-      <c r="R49" s="28" t="n"/>
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="n"/>
-      <c r="B50" s="28" t="n"/>
-      <c r="C50" s="28" t="n"/>
-      <c r="D50" s="28" t="n"/>
-      <c r="E50" s="28" t="n"/>
-      <c r="F50" s="28" t="n"/>
-      <c r="G50" s="28" t="n"/>
-      <c r="H50" s="28" t="n"/>
-      <c r="I50" s="28" t="n"/>
-      <c r="J50" s="28" t="n"/>
-      <c r="K50" s="28" t="n"/>
-      <c r="L50" s="28" t="n"/>
-      <c r="M50" s="28" t="n"/>
-      <c r="N50" s="28" t="n"/>
-      <c r="O50" s="28" t="n"/>
-      <c r="P50" s="28" t="n"/>
-      <c r="Q50" s="28" t="n"/>
-      <c r="R50" s="28" t="n"/>
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="28" t="n"/>
-      <c r="B51" s="28" t="n"/>
-      <c r="C51" s="28" t="n"/>
-      <c r="D51" s="29" t="n"/>
-      <c r="E51" s="28" t="n"/>
-      <c r="F51" s="28" t="n"/>
-      <c r="G51" s="28" t="n"/>
-      <c r="H51" s="28" t="n"/>
-      <c r="I51" s="28" t="n"/>
-      <c r="J51" s="28" t="n"/>
-      <c r="K51" s="28" t="n"/>
-      <c r="L51" s="28" t="n"/>
-      <c r="M51" s="28" t="n"/>
-      <c r="N51" s="28" t="n"/>
-      <c r="O51" s="28" t="n"/>
-      <c r="P51" s="28" t="n"/>
-      <c r="Q51" s="28" t="n"/>
-      <c r="R51" s="28" t="n"/>
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="28" t="n"/>
-      <c r="B52" s="28" t="n"/>
-      <c r="C52" s="28" t="n"/>
-      <c r="D52" s="28" t="n"/>
-      <c r="E52" s="28" t="n"/>
-      <c r="F52" s="28" t="n"/>
-      <c r="G52" s="28" t="n"/>
-      <c r="H52" s="28" t="n"/>
-      <c r="I52" s="28" t="n"/>
-      <c r="J52" s="28" t="n"/>
-      <c r="K52" s="28" t="n"/>
-      <c r="L52" s="28" t="n"/>
-      <c r="M52" s="28" t="n"/>
-      <c r="N52" s="28" t="n"/>
-      <c r="O52" s="28" t="n"/>
-      <c r="P52" s="28" t="n"/>
-      <c r="Q52" s="28" t="n"/>
-      <c r="R52" s="28" t="n"/>
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="42" t="inlineStr">
+      <c r="A53" s="36" t="inlineStr">
         <is>
           <t>Service prévisionnel vacataires</t>
         </is>
       </c>
-      <c r="C53" s="29" t="inlineStr">
+      <c r="C53" s="28" t="inlineStr">
         <is>
           <t>(Ne pas oublier d’inclure les tests)</t>
         </is>
       </c>
-      <c r="D53" s="28" t="n"/>
-      <c r="E53" s="28" t="n"/>
-      <c r="F53" s="28" t="n"/>
-      <c r="G53" s="28" t="n"/>
-      <c r="H53" s="28" t="n"/>
-      <c r="I53" s="28" t="n"/>
-      <c r="J53" s="28" t="n"/>
-      <c r="K53" s="28" t="n"/>
-      <c r="L53" s="28" t="n"/>
-      <c r="M53" s="28" t="n"/>
-      <c r="N53" s="28" t="n"/>
-      <c r="O53" s="28" t="n"/>
-      <c r="P53" s="28" t="n"/>
-      <c r="Q53" s="28" t="n"/>
-      <c r="R53" s="28" t="n"/>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="19" t="inlineStr">
@@ -1935,9 +1935,9 @@
       <c r="O54" s="65" t="n"/>
       <c r="P54" s="65" t="n"/>
       <c r="Q54" s="66" t="n"/>
-      <c r="R54" s="28" t="n"/>
-    </row>
-    <row r="55" ht="64.5" customHeight="1">
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
       <c r="A55" s="64" t="n"/>
       <c r="B55" s="60" t="n"/>
       <c r="C55" s="67" t="n"/>
@@ -2030,22 +2030,12 @@
         <v>0</v>
       </c>
       <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n">
-        <v>20</v>
-      </c>
+      <c r="M56" s="24" t="n"/>
       <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="P56" s="22" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="Q56" s="23" t="n">
-        <v>43</v>
-      </c>
-      <c r="R56" s="23" t="n">
-        <v>43</v>
-      </c>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="68" t="n"/>
@@ -2064,22 +2054,12 @@
         <v>0</v>
       </c>
       <c r="L57" s="21" t="n"/>
-      <c r="M57" s="24" t="n">
-        <v>20</v>
-      </c>
+      <c r="M57" s="24" t="n"/>
       <c r="N57" s="21" t="n"/>
-      <c r="O57" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="P57" s="22" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="Q57" s="23" t="n">
-        <v>43</v>
-      </c>
-      <c r="R57" s="23" t="n">
-        <v>43</v>
-      </c>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="21" t="n"/>
@@ -2142,71 +2122,71 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="28" t="n"/>
-      <c r="B60" s="28" t="n"/>
-      <c r="C60" s="28" t="n"/>
-      <c r="D60" s="28" t="n"/>
-      <c r="E60" s="28" t="n"/>
-      <c r="F60" s="28" t="n"/>
-      <c r="G60" s="28" t="n"/>
-      <c r="H60" s="28" t="n"/>
-      <c r="I60" s="28" t="n"/>
-      <c r="J60" s="28" t="n"/>
-      <c r="K60" s="28" t="n"/>
-      <c r="L60" s="28" t="n"/>
-      <c r="M60" s="28" t="n"/>
-      <c r="N60" s="28" t="n"/>
-      <c r="O60" s="28" t="n"/>
-      <c r="P60" s="28" t="n"/>
-      <c r="Q60" s="28" t="n"/>
-      <c r="R60" s="28" t="n"/>
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="28" t="n"/>
-      <c r="B61" s="28" t="n"/>
-      <c r="C61" s="28" t="n"/>
-      <c r="D61" s="28" t="n"/>
-      <c r="E61" s="28" t="n"/>
-      <c r="F61" s="28" t="n"/>
-      <c r="G61" s="28" t="n"/>
-      <c r="H61" s="28" t="n"/>
-      <c r="I61" s="28" t="n"/>
-      <c r="J61" s="28" t="n"/>
-      <c r="K61" s="28" t="n"/>
-      <c r="L61" s="28" t="n"/>
-      <c r="M61" s="28" t="n"/>
-      <c r="N61" s="28" t="n"/>
-      <c r="O61" s="28" t="n"/>
-      <c r="P61" s="28" t="n"/>
-      <c r="Q61" s="28" t="n"/>
-      <c r="R61" s="28" t="n"/>
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="42" t="inlineStr">
+      <c r="A62" s="36" t="inlineStr">
         <is>
           <t>Service prévisionnel titulaires</t>
         </is>
       </c>
-      <c r="C62" s="29" t="inlineStr">
+      <c r="C62" s="28" t="inlineStr">
         <is>
           <t>(Ne pas oublier d’inclure les tests)</t>
         </is>
       </c>
-      <c r="D62" s="28" t="n"/>
-      <c r="E62" s="28" t="n"/>
-      <c r="F62" s="28" t="n"/>
-      <c r="G62" s="28" t="n"/>
-      <c r="H62" s="28" t="n"/>
-      <c r="I62" s="28" t="n"/>
-      <c r="J62" s="28" t="n"/>
-      <c r="K62" s="28" t="n"/>
-      <c r="L62" s="28" t="n"/>
-      <c r="M62" s="28" t="n"/>
-      <c r="N62" s="28" t="n"/>
-      <c r="O62" s="28" t="n"/>
-      <c r="P62" s="28" t="n"/>
-      <c r="Q62" s="28" t="n"/>
-      <c r="R62" s="28" t="n"/>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="19" t="inlineStr">
@@ -2253,9 +2233,9 @@
       <c r="O63" s="65" t="n"/>
       <c r="P63" s="65" t="n"/>
       <c r="Q63" s="66" t="n"/>
-      <c r="R63" s="28" t="n"/>
-    </row>
-    <row r="64" ht="64.5" customHeight="1">
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
       <c r="A64" s="64" t="n"/>
       <c r="B64" s="60" t="n"/>
       <c r="C64" s="67" t="n"/>
@@ -2347,25 +2327,13 @@
       <c r="K65" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L65" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="M65" s="24" t="n">
-        <v>40</v>
-      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
       <c r="N65" s="21" t="n"/>
-      <c r="O65" s="24" t="n">
-        <v>43</v>
-      </c>
-      <c r="P65" s="22" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q65" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="R65" s="23" t="n">
-        <v>98</v>
-      </c>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="21" t="n"/>
@@ -2466,12 +2434,12 @@
     <mergeCell ref="D28:H31"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A63:B64"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A56:B56"/>
@@ -2485,9 +2453,9 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="F54:K54"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E22:F22"/>
@@ -2514,283 +2482,283 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="15.28515625" customWidth="1" min="2" max="2"/>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="28" t="n"/>
-      <c r="B1" s="28" t="n"/>
-      <c r="C1" s="28" t="n"/>
-      <c r="D1" s="28" t="n"/>
-      <c r="E1" s="28" t="n"/>
-      <c r="F1" s="28" t="n"/>
-      <c r="G1" s="28" t="n"/>
-      <c r="H1" s="28" t="n"/>
-      <c r="I1" s="28" t="n"/>
-      <c r="J1" s="28" t="n"/>
-      <c r="K1" s="28" t="n"/>
-      <c r="L1" s="28" t="n"/>
-      <c r="M1" s="28" t="n"/>
-      <c r="N1" s="28" t="n"/>
-      <c r="O1" s="28" t="n"/>
-      <c r="P1" s="28" t="n"/>
-      <c r="Q1" s="28" t="n"/>
-      <c r="R1" s="28" t="n"/>
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="inlineStr">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Ressource</t>
         </is>
       </c>
-      <c r="B2" s="28" t="inlineStr">
+      <c r="B2" s="27" t="inlineStr">
         <is>
           <t>R6.A.05 Développement avancé</t>
         </is>
       </c>
-      <c r="E2" s="28" t="n"/>
-      <c r="F2" s="42" t="inlineStr">
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Responsable</t>
         </is>
       </c>
-      <c r="G2" s="28" t="inlineStr">
+      <c r="G2" s="27" t="inlineStr">
         <is>
           <t>Frédéric FLOUVAT</t>
         </is>
       </c>
-      <c r="H2" s="28" t="n"/>
-      <c r="I2" s="28" t="n"/>
-      <c r="J2" s="28" t="n"/>
-      <c r="K2" s="28" t="n"/>
-      <c r="L2" s="28" t="n"/>
-      <c r="M2" s="28" t="n"/>
-      <c r="N2" s="28" t="n"/>
-      <c r="O2" s="28" t="n"/>
-      <c r="P2" s="28" t="n"/>
-      <c r="Q2" s="28" t="n"/>
-      <c r="R2" s="28" t="n"/>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="n"/>
-      <c r="B3" s="28" t="n"/>
-      <c r="C3" s="28" t="n"/>
-      <c r="D3" s="28" t="n"/>
-      <c r="E3" s="28" t="n"/>
-      <c r="F3" s="28" t="n"/>
-      <c r="G3" s="28" t="n"/>
-      <c r="H3" s="28" t="n"/>
-      <c r="I3" s="28" t="n"/>
-      <c r="J3" s="28" t="n"/>
-      <c r="K3" s="28" t="n"/>
-      <c r="L3" s="28" t="n"/>
-      <c r="M3" s="28" t="n"/>
-      <c r="N3" s="28" t="n"/>
-      <c r="O3" s="28" t="n"/>
-      <c r="P3" s="28" t="n"/>
-      <c r="Q3" s="28" t="n"/>
-      <c r="R3" s="28" t="n"/>
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Maquette</t>
         </is>
       </c>
-      <c r="B4" s="29" t="inlineStr">
+      <c r="B4" s="28" t="inlineStr">
         <is>
           <t>CM</t>
         </is>
       </c>
-      <c r="C4" s="29" t="inlineStr">
+      <c r="C4" s="28" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
-      <c r="D4" s="29" t="inlineStr">
+      <c r="D4" s="28" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="E4" s="28" t="n"/>
-      <c r="F4" s="28" t="n"/>
-      <c r="G4" s="28" t="n"/>
-      <c r="H4" s="28" t="n"/>
-      <c r="I4" s="28" t="n"/>
-      <c r="J4" s="28" t="n"/>
-      <c r="K4" s="28" t="n"/>
-      <c r="L4" s="28" t="n"/>
-      <c r="M4" s="28" t="n"/>
-      <c r="N4" s="28" t="n"/>
-      <c r="O4" s="28" t="n"/>
-      <c r="P4" s="28" t="n"/>
-      <c r="Q4" s="28" t="n"/>
-      <c r="R4" s="28" t="n"/>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n"/>
-      <c r="B5" s="28" t="n">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="n"/>
-      <c r="F5" s="28" t="n"/>
-      <c r="G5" s="28" t="n"/>
-      <c r="H5" s="28" t="n"/>
-      <c r="I5" s="28" t="n"/>
-      <c r="J5" s="28" t="n"/>
-      <c r="K5" s="28" t="n"/>
-      <c r="L5" s="28" t="n"/>
-      <c r="M5" s="28" t="n"/>
-      <c r="N5" s="28" t="n"/>
-      <c r="O5" s="28" t="n"/>
-      <c r="P5" s="28" t="n"/>
-      <c r="Q5" s="28" t="n"/>
-      <c r="R5" s="28" t="n"/>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="28" t="n"/>
-      <c r="B6" s="28" t="n"/>
-      <c r="C6" s="28" t="n"/>
-      <c r="D6" s="28" t="n"/>
-      <c r="E6" s="28" t="n"/>
-      <c r="F6" s="28" t="n"/>
-      <c r="G6" s="28" t="n"/>
-      <c r="H6" s="28" t="n"/>
-      <c r="I6" s="28" t="n"/>
-      <c r="J6" s="28" t="n"/>
-      <c r="K6" s="28" t="n"/>
-      <c r="L6" s="28" t="n"/>
-      <c r="M6" s="28" t="n"/>
-      <c r="N6" s="28" t="n"/>
-      <c r="O6" s="28" t="n"/>
-      <c r="P6" s="28" t="n"/>
-      <c r="Q6" s="28" t="n"/>
-      <c r="R6" s="28" t="n"/>
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="42" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>Intervenants</t>
         </is>
       </c>
-      <c r="B7" s="29" t="inlineStr">
+      <c r="B7" s="28" t="inlineStr">
         <is>
           <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
         </is>
       </c>
-      <c r="M7" s="28" t="n"/>
-      <c r="N7" s="28" t="n"/>
-      <c r="O7" s="28" t="n"/>
-      <c r="P7" s="28" t="n"/>
-      <c r="Q7" s="28" t="n"/>
-      <c r="R7" s="28" t="n"/>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
-      <c r="C8" s="28" t="n"/>
-      <c r="D8" s="28" t="n"/>
-      <c r="E8" s="28" t="n"/>
-      <c r="F8" s="28" t="n"/>
-      <c r="G8" s="28" t="n"/>
-      <c r="H8" s="28" t="n"/>
-      <c r="I8" s="28" t="n"/>
-      <c r="J8" s="28" t="n"/>
-      <c r="K8" s="28" t="n"/>
-      <c r="L8" s="28" t="n"/>
-      <c r="M8" s="28" t="n"/>
-      <c r="N8" s="28" t="n"/>
-      <c r="O8" s="28" t="n"/>
-      <c r="P8" s="28" t="n"/>
-      <c r="Q8" s="28" t="n"/>
-      <c r="R8" s="28" t="n"/>
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="29" t="n"/>
-      <c r="C9" s="28" t="n"/>
-      <c r="D9" s="28" t="n"/>
-      <c r="E9" s="28" t="n"/>
-      <c r="F9" s="28" t="n"/>
-      <c r="G9" s="28" t="n"/>
-      <c r="H9" s="28" t="n"/>
-      <c r="I9" s="28" t="n"/>
-      <c r="J9" s="28" t="n"/>
-      <c r="K9" s="28" t="n"/>
-      <c r="L9" s="28" t="n"/>
-      <c r="M9" s="28" t="n"/>
-      <c r="N9" s="28" t="n"/>
-      <c r="O9" s="28" t="n"/>
-      <c r="P9" s="28" t="n"/>
-      <c r="Q9" s="28" t="n"/>
-      <c r="R9" s="28" t="n"/>
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="29" t="n"/>
-      <c r="C10" s="28" t="n"/>
-      <c r="D10" s="28" t="n"/>
-      <c r="E10" s="28" t="n"/>
-      <c r="F10" s="28" t="n"/>
-      <c r="G10" s="28" t="n"/>
-      <c r="H10" s="28" t="n"/>
-      <c r="I10" s="28" t="n"/>
-      <c r="J10" s="28" t="n"/>
-      <c r="K10" s="28" t="n"/>
-      <c r="L10" s="28" t="n"/>
-      <c r="M10" s="28" t="n"/>
-      <c r="N10" s="28" t="n"/>
-      <c r="O10" s="28" t="n"/>
-      <c r="P10" s="28" t="n"/>
-      <c r="Q10" s="28" t="n"/>
-      <c r="R10" s="28" t="n"/>
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="28" t="n"/>
-      <c r="B11" s="28" t="n"/>
-      <c r="C11" s="28" t="n"/>
-      <c r="D11" s="28" t="n"/>
-      <c r="E11" s="28" t="n"/>
-      <c r="F11" s="28" t="n"/>
-      <c r="G11" s="28" t="n"/>
-      <c r="H11" s="28" t="n"/>
-      <c r="I11" s="28" t="n"/>
-      <c r="J11" s="28" t="n"/>
-      <c r="K11" s="28" t="n"/>
-      <c r="L11" s="28" t="n"/>
-      <c r="M11" s="28" t="n"/>
-      <c r="N11" s="28" t="n"/>
-      <c r="O11" s="28" t="n"/>
-      <c r="P11" s="28" t="n"/>
-      <c r="Q11" s="28" t="n"/>
-      <c r="R11" s="28" t="n"/>
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="28" t="n"/>
-      <c r="B12" s="28" t="n"/>
-      <c r="C12" s="28" t="n"/>
-      <c r="D12" s="28" t="n"/>
-      <c r="E12" s="28" t="n"/>
-      <c r="F12" s="28" t="n"/>
-      <c r="G12" s="28" t="n"/>
-      <c r="H12" s="28" t="n"/>
-      <c r="I12" s="28" t="n"/>
-      <c r="J12" s="28" t="n"/>
-      <c r="K12" s="28" t="n"/>
-      <c r="L12" s="28" t="n"/>
-      <c r="M12" s="28" t="n"/>
-      <c r="N12" s="28" t="n"/>
-      <c r="O12" s="28" t="n"/>
-      <c r="P12" s="28" t="n"/>
-      <c r="Q12" s="28" t="n"/>
-      <c r="R12" s="28" t="n"/>
-    </row>
-    <row r="13" ht="41.25" customHeight="1">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Répartition</t>
@@ -2802,22 +2770,22 @@
 Groupes</t>
         </is>
       </c>
-      <c r="C13" s="28" t="n"/>
-      <c r="D13" s="28" t="n"/>
-      <c r="E13" s="28" t="n"/>
-      <c r="F13" s="28" t="n"/>
-      <c r="G13" s="28" t="n"/>
-      <c r="H13" s="28" t="n"/>
-      <c r="I13" s="28" t="n"/>
-      <c r="J13" s="28" t="n"/>
-      <c r="K13" s="28" t="n"/>
-      <c r="L13" s="28" t="n"/>
-      <c r="M13" s="28" t="n"/>
-      <c r="N13" s="28" t="n"/>
-      <c r="O13" s="28" t="n"/>
-      <c r="P13" s="28" t="n"/>
-      <c r="Q13" s="28" t="n"/>
-      <c r="R13" s="28" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
@@ -2826,8 +2794,8 @@
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
-      <c r="C14" s="28" t="n"/>
-      <c r="D14" s="30" t="inlineStr">
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
         <is>
           <t>Possibilité de changer de groupe de TDs au fil du module</t>
         </is>
@@ -2836,26 +2804,26 @@
       <c r="F14" s="57" t="n"/>
       <c r="G14" s="57" t="n"/>
       <c r="H14" s="57" t="n"/>
-      <c r="I14" s="32" t="inlineStr">
+      <c r="I14" s="31" t="inlineStr">
         <is>
           <t>si besoin</t>
         </is>
       </c>
       <c r="J14" s="58" t="n"/>
-      <c r="K14" s="28" t="n"/>
-      <c r="L14" s="28" t="n"/>
-      <c r="M14" s="28" t="n"/>
-      <c r="N14" s="28" t="n"/>
-      <c r="O14" s="28" t="n"/>
-      <c r="P14" s="28" t="n"/>
-      <c r="Q14" s="28" t="n"/>
-      <c r="R14" s="28" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="n"/>
       <c r="B15" s="9" t="n"/>
-      <c r="C15" s="28" t="n"/>
-      <c r="D15" s="33" t="inlineStr">
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
         <is>
           <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
         </is>
@@ -2864,40 +2832,40 @@
       <c r="F15" s="59" t="n"/>
       <c r="G15" s="59" t="n"/>
       <c r="H15" s="59" t="n"/>
-      <c r="I15" s="35" t="inlineStr">
+      <c r="I15" s="26" t="inlineStr">
         <is>
           <t>Au choix</t>
         </is>
       </c>
       <c r="J15" s="60" t="n"/>
-      <c r="K15" s="28" t="n"/>
-      <c r="L15" s="28" t="n"/>
-      <c r="M15" s="28" t="n"/>
-      <c r="N15" s="28" t="n"/>
-      <c r="O15" s="28" t="n"/>
-      <c r="P15" s="28" t="n"/>
-      <c r="Q15" s="28" t="n"/>
-      <c r="R15" s="28" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="10" t="n"/>
       <c r="B16" s="11" t="n"/>
-      <c r="C16" s="28" t="n"/>
-      <c r="D16" s="28" t="n"/>
-      <c r="E16" s="28" t="n"/>
-      <c r="F16" s="28" t="n"/>
-      <c r="G16" s="28" t="n"/>
-      <c r="H16" s="28" t="n"/>
-      <c r="I16" s="28" t="n"/>
-      <c r="J16" s="28" t="n"/>
-      <c r="K16" s="28" t="n"/>
-      <c r="L16" s="28" t="n"/>
-      <c r="M16" s="28" t="n"/>
-      <c r="N16" s="28" t="n"/>
-      <c r="O16" s="28" t="n"/>
-      <c r="P16" s="28" t="n"/>
-      <c r="Q16" s="28" t="n"/>
-      <c r="R16" s="28" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
@@ -2906,114 +2874,114 @@
         </is>
       </c>
       <c r="B17" s="12" t="n"/>
-      <c r="C17" s="28" t="n"/>
-      <c r="D17" s="28" t="n"/>
-      <c r="E17" s="28" t="n"/>
-      <c r="F17" s="28" t="n"/>
-      <c r="G17" s="28" t="n"/>
-      <c r="H17" s="28" t="n"/>
-      <c r="I17" s="28" t="n"/>
-      <c r="J17" s="28" t="n"/>
-      <c r="K17" s="28" t="n"/>
-      <c r="L17" s="28" t="n"/>
-      <c r="M17" s="28" t="n"/>
-      <c r="N17" s="28" t="n"/>
-      <c r="O17" s="28" t="n"/>
-      <c r="P17" s="28" t="n"/>
-      <c r="Q17" s="28" t="n"/>
-      <c r="R17" s="28" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="8" t="n"/>
       <c r="B18" s="13" t="n"/>
-      <c r="C18" s="28" t="n"/>
-      <c r="D18" s="28" t="n"/>
-      <c r="E18" s="28" t="n"/>
-      <c r="F18" s="28" t="n"/>
-      <c r="G18" s="28" t="n"/>
-      <c r="H18" s="28" t="n"/>
-      <c r="I18" s="28" t="n"/>
-      <c r="J18" s="28" t="n"/>
-      <c r="K18" s="28" t="n"/>
-      <c r="L18" s="28" t="n"/>
-      <c r="M18" s="28" t="n"/>
-      <c r="N18" s="28" t="n"/>
-      <c r="O18" s="28" t="n"/>
-      <c r="P18" s="28" t="n"/>
-      <c r="Q18" s="28" t="n"/>
-      <c r="R18" s="28" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="n"/>
       <c r="B19" s="13" t="n"/>
-      <c r="C19" s="28" t="n"/>
-      <c r="D19" s="39" t="inlineStr">
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
         <is>
           <t>Test(s)</t>
         </is>
       </c>
-      <c r="E19" s="37" t="n"/>
+      <c r="E19" s="34" t="n"/>
       <c r="F19" s="58" t="n"/>
-      <c r="G19" s="28" t="n"/>
-      <c r="H19" s="28" t="n"/>
-      <c r="I19" s="28" t="n"/>
-      <c r="J19" s="28" t="n"/>
-      <c r="K19" s="28" t="n"/>
-      <c r="L19" s="28" t="n"/>
-      <c r="M19" s="28" t="n"/>
-      <c r="N19" s="28" t="n"/>
-      <c r="O19" s="28" t="n"/>
-      <c r="P19" s="28" t="n"/>
-      <c r="Q19" s="28" t="n"/>
-      <c r="R19" s="28" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="n"/>
       <c r="B20" s="13" t="n"/>
-      <c r="C20" s="28" t="n"/>
-      <c r="D20" s="41" t="inlineStr">
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
         <is>
           <t>Durée</t>
         </is>
       </c>
-      <c r="E20" s="38" t="n"/>
+      <c r="E20" s="35" t="n"/>
       <c r="F20" s="61" t="n"/>
-      <c r="G20" s="28" t="n"/>
-      <c r="H20" s="28" t="n"/>
-      <c r="I20" s="28" t="n"/>
-      <c r="J20" s="28" t="n"/>
-      <c r="K20" s="28" t="n"/>
-      <c r="L20" s="28" t="n"/>
-      <c r="M20" s="28" t="n"/>
-      <c r="N20" s="28" t="n"/>
-      <c r="O20" s="28" t="n"/>
-      <c r="P20" s="28" t="n"/>
-      <c r="Q20" s="28" t="n"/>
-      <c r="R20" s="28" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="n"/>
       <c r="B21" s="10" t="n"/>
-      <c r="C21" s="28" t="n"/>
-      <c r="D21" s="41" t="inlineStr">
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
         <is>
           <t>Salle</t>
         </is>
       </c>
-      <c r="E21" s="38" t="n"/>
+      <c r="E21" s="35" t="n"/>
       <c r="F21" s="61" t="n"/>
-      <c r="G21" s="28" t="n"/>
-      <c r="H21" s="28" t="n"/>
-      <c r="I21" s="28" t="n"/>
-      <c r="J21" s="28" t="n"/>
-      <c r="K21" s="28" t="n"/>
-      <c r="L21" s="28" t="n"/>
-      <c r="M21" s="28" t="n"/>
-      <c r="N21" s="28" t="n"/>
-      <c r="O21" s="28" t="n"/>
-      <c r="P21" s="28" t="n"/>
-      <c r="Q21" s="28" t="n"/>
-      <c r="R21" s="28" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
@@ -3022,104 +2990,104 @@
         </is>
       </c>
       <c r="B22" s="12" t="n"/>
-      <c r="C22" s="28" t="n"/>
-      <c r="D22" s="33" t="inlineStr">
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
         <is>
           <t>Payé en</t>
         </is>
       </c>
-      <c r="E22" s="35" t="n"/>
+      <c r="E22" s="26" t="n"/>
       <c r="F22" s="60" t="n"/>
-      <c r="G22" s="28" t="n"/>
-      <c r="H22" s="28" t="n"/>
-      <c r="I22" s="28" t="n"/>
-      <c r="J22" s="28" t="n"/>
-      <c r="K22" s="28" t="n"/>
-      <c r="L22" s="28" t="n"/>
-      <c r="M22" s="28" t="n"/>
-      <c r="N22" s="28" t="n"/>
-      <c r="O22" s="28" t="n"/>
-      <c r="P22" s="28" t="n"/>
-      <c r="Q22" s="28" t="n"/>
-      <c r="R22" s="28" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="8" t="n"/>
       <c r="B23" s="8" t="n"/>
-      <c r="C23" s="28" t="n"/>
-      <c r="D23" s="28" t="n"/>
-      <c r="E23" s="28" t="n"/>
-      <c r="F23" s="28" t="n"/>
-      <c r="G23" s="28" t="n"/>
-      <c r="H23" s="28" t="n"/>
-      <c r="I23" s="28" t="n"/>
-      <c r="J23" s="28" t="n"/>
-      <c r="K23" s="28" t="n"/>
-      <c r="L23" s="28" t="n"/>
-      <c r="M23" s="28" t="n"/>
-      <c r="N23" s="28" t="n"/>
-      <c r="O23" s="28" t="n"/>
-      <c r="P23" s="28" t="n"/>
-      <c r="Q23" s="28" t="n"/>
-      <c r="R23" s="28" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n"/>
       <c r="B24" s="8" t="n"/>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="28" t="n"/>
-      <c r="E24" s="28" t="n"/>
-      <c r="F24" s="28" t="n"/>
-      <c r="G24" s="28" t="n"/>
-      <c r="H24" s="28" t="n"/>
-      <c r="I24" s="28" t="n"/>
-      <c r="J24" s="28" t="n"/>
-      <c r="K24" s="28" t="n"/>
-      <c r="L24" s="28" t="n"/>
-      <c r="M24" s="28" t="n"/>
-      <c r="N24" s="28" t="n"/>
-      <c r="O24" s="28" t="n"/>
-      <c r="P24" s="28" t="n"/>
-      <c r="Q24" s="28" t="n"/>
-      <c r="R24" s="28" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="8" t="n"/>
       <c r="B25" s="8" t="n"/>
-      <c r="C25" s="28" t="n"/>
-      <c r="D25" s="28" t="n"/>
-      <c r="G25" s="28" t="n"/>
-      <c r="H25" s="28" t="n"/>
-      <c r="I25" s="28" t="n"/>
-      <c r="J25" s="28" t="n"/>
-      <c r="K25" s="28" t="n"/>
-      <c r="L25" s="28" t="n"/>
-      <c r="M25" s="28" t="n"/>
-      <c r="N25" s="28" t="n"/>
-      <c r="O25" s="28" t="n"/>
-      <c r="P25" s="28" t="n"/>
-      <c r="Q25" s="28" t="n"/>
-      <c r="R25" s="28" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="n"/>
       <c r="B26" s="10" t="n"/>
-      <c r="C26" s="28" t="n"/>
-      <c r="D26" s="28" t="n"/>
-      <c r="E26" s="28" t="n"/>
-      <c r="F26" s="28" t="n"/>
-      <c r="G26" s="28" t="n"/>
-      <c r="H26" s="28" t="n"/>
-      <c r="I26" s="28" t="n"/>
-      <c r="J26" s="28" t="n"/>
-      <c r="K26" s="28" t="n"/>
-      <c r="L26" s="28" t="n"/>
-      <c r="M26" s="28" t="n"/>
-      <c r="N26" s="28" t="n"/>
-      <c r="O26" s="28" t="n"/>
-      <c r="P26" s="28" t="n"/>
-      <c r="Q26" s="28" t="n"/>
-      <c r="R26" s="28" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
@@ -3128,31 +3096,31 @@
         </is>
       </c>
       <c r="B27" s="12" t="n"/>
-      <c r="C27" s="28" t="n"/>
-      <c r="D27" s="39" t="inlineStr">
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
         <is>
           <t>Autres informations :</t>
         </is>
       </c>
       <c r="E27" s="57" t="n"/>
-      <c r="F27" s="36" t="n"/>
-      <c r="G27" s="36" t="n"/>
-      <c r="H27" s="37" t="n"/>
-      <c r="I27" s="28" t="n"/>
-      <c r="J27" s="28" t="n"/>
-      <c r="K27" s="28" t="n"/>
-      <c r="L27" s="28" t="n"/>
-      <c r="M27" s="28" t="n"/>
-      <c r="N27" s="28" t="n"/>
-      <c r="O27" s="28" t="n"/>
-      <c r="P27" s="28" t="n"/>
-      <c r="Q27" s="28" t="n"/>
-      <c r="R27" s="28" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="8" t="n"/>
       <c r="B28" s="13" t="n"/>
-      <c r="C28" s="28" t="n"/>
+      <c r="C28" s="27" t="n"/>
       <c r="D28" s="62" t="inlineStr">
         <is>
           <t>* tous les intervenants, vactaires compris, surveillent l’examen
@@ -3161,561 +3129,561 @@
         </is>
       </c>
       <c r="H28" s="61" t="n"/>
-      <c r="I28" s="28" t="n"/>
-      <c r="J28" s="28" t="n"/>
-      <c r="K28" s="28" t="n"/>
-      <c r="L28" s="28" t="n"/>
-      <c r="M28" s="28" t="n"/>
-      <c r="N28" s="28" t="n"/>
-      <c r="O28" s="28" t="n"/>
-      <c r="P28" s="28" t="n"/>
-      <c r="Q28" s="28" t="n"/>
-      <c r="R28" s="28" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="n"/>
       <c r="B29" s="13" t="n"/>
-      <c r="C29" s="28" t="n"/>
+      <c r="C29" s="27" t="n"/>
       <c r="D29" s="63" t="n"/>
       <c r="H29" s="61" t="n"/>
-      <c r="I29" s="28" t="n"/>
-      <c r="J29" s="28" t="n"/>
-      <c r="K29" s="28" t="n"/>
-      <c r="L29" s="28" t="n"/>
-      <c r="M29" s="28" t="n"/>
-      <c r="N29" s="28" t="n"/>
-      <c r="O29" s="28" t="n"/>
-      <c r="P29" s="28" t="n"/>
-      <c r="Q29" s="28" t="n"/>
-      <c r="R29" s="28" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n"/>
       <c r="B30" s="13" t="n"/>
-      <c r="C30" s="28" t="n"/>
+      <c r="C30" s="27" t="n"/>
       <c r="D30" s="63" t="n"/>
       <c r="H30" s="61" t="n"/>
-      <c r="I30" s="28" t="n"/>
-      <c r="J30" s="28" t="n"/>
-      <c r="K30" s="28" t="n"/>
-      <c r="L30" s="28" t="n"/>
-      <c r="M30" s="28" t="n"/>
-      <c r="N30" s="28" t="n"/>
-      <c r="O30" s="28" t="n"/>
-      <c r="P30" s="28" t="n"/>
-      <c r="Q30" s="28" t="n"/>
-      <c r="R30" s="28" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="10" t="n"/>
       <c r="B31" s="10" t="n"/>
-      <c r="C31" s="28" t="n"/>
+      <c r="C31" s="27" t="n"/>
       <c r="D31" s="64" t="n"/>
       <c r="E31" s="59" t="n"/>
       <c r="F31" s="59" t="n"/>
       <c r="G31" s="59" t="n"/>
       <c r="H31" s="60" t="n"/>
-      <c r="I31" s="28" t="n"/>
-      <c r="J31" s="28" t="n"/>
-      <c r="K31" s="28" t="n"/>
-      <c r="L31" s="28" t="n"/>
-      <c r="M31" s="28" t="n"/>
-      <c r="N31" s="28" t="n"/>
-      <c r="O31" s="28" t="n"/>
-      <c r="P31" s="28" t="n"/>
-      <c r="Q31" s="28" t="n"/>
-      <c r="R31" s="28" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="28" t="n"/>
-      <c r="B32" s="28" t="n"/>
-      <c r="C32" s="28" t="n"/>
-      <c r="D32" s="28" t="n"/>
-      <c r="E32" s="28" t="n"/>
-      <c r="F32" s="28" t="n"/>
-      <c r="G32" s="28" t="n"/>
-      <c r="H32" s="28" t="n"/>
-      <c r="I32" s="28" t="n"/>
-      <c r="J32" s="28" t="n"/>
-      <c r="K32" s="28" t="n"/>
-      <c r="L32" s="28" t="n"/>
-      <c r="M32" s="28" t="n"/>
-      <c r="N32" s="28" t="n"/>
-      <c r="O32" s="28" t="n"/>
-      <c r="P32" s="28" t="n"/>
-      <c r="Q32" s="28" t="n"/>
-      <c r="R32" s="28" t="n"/>
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="42" t="inlineStr">
+      <c r="A33" s="36" t="inlineStr">
         <is>
           <t>Organisation détaillée</t>
         </is>
       </c>
-      <c r="B33" s="29" t="inlineStr">
+      <c r="B33" s="28" t="inlineStr">
         <is>
           <t>(toutes les informations doivent figurer ici)</t>
         </is>
       </c>
-      <c r="C33" s="28" t="n"/>
-      <c r="D33" s="28" t="n"/>
-      <c r="E33" s="28" t="n"/>
-      <c r="F33" s="28" t="n"/>
-      <c r="G33" s="28" t="n"/>
-      <c r="H33" s="28" t="n"/>
-      <c r="I33" s="28" t="n"/>
-      <c r="J33" s="28" t="n"/>
-      <c r="K33" s="28" t="n"/>
-      <c r="L33" s="28" t="n"/>
-      <c r="M33" s="28" t="n"/>
-      <c r="N33" s="28" t="n"/>
-      <c r="O33" s="28" t="n"/>
-      <c r="P33" s="28" t="n"/>
-      <c r="Q33" s="28" t="n"/>
-      <c r="R33" s="28" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="28" t="n"/>
-      <c r="B34" s="29" t="n"/>
-      <c r="C34" s="28" t="n"/>
-      <c r="D34" s="28" t="n"/>
-      <c r="E34" s="28" t="n"/>
-      <c r="F34" s="28" t="n"/>
-      <c r="G34" s="28" t="n"/>
-      <c r="H34" s="28" t="n"/>
-      <c r="I34" s="28" t="n"/>
-      <c r="J34" s="28" t="n"/>
-      <c r="K34" s="28" t="n"/>
-      <c r="L34" s="28" t="n"/>
-      <c r="M34" s="28" t="n"/>
-      <c r="N34" s="28" t="n"/>
-      <c r="O34" s="28" t="n"/>
-      <c r="P34" s="28" t="n"/>
-      <c r="Q34" s="28" t="n"/>
-      <c r="R34" s="28" t="n"/>
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="inlineStr">
+      <c r="A35" s="27" t="inlineStr">
         <is>
           <t>2024-02-05</t>
         </is>
       </c>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="inlineStr">
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
         </is>
       </c>
-      <c r="D35" s="28" t="inlineStr">
+      <c r="D35" s="27" t="inlineStr">
         <is>
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E35" s="28" t="n"/>
-      <c r="F35" s="28" t="n"/>
-      <c r="G35" s="28" t="n"/>
-      <c r="H35" s="28" t="n"/>
-      <c r="I35" s="28" t="n"/>
-      <c r="J35" s="28" t="n"/>
-      <c r="K35" s="28" t="n"/>
-      <c r="L35" s="28" t="n"/>
-      <c r="M35" s="28" t="n"/>
-      <c r="N35" s="28" t="n"/>
-      <c r="O35" s="28" t="n"/>
-      <c r="P35" s="28" t="n"/>
-      <c r="Q35" s="28" t="n"/>
-      <c r="R35" s="28" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="inlineStr">
+      <c r="A36" s="27" t="inlineStr">
         <is>
           <t>2024-02-12</t>
         </is>
       </c>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="inlineStr">
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
         </is>
       </c>
-      <c r="D36" s="28" t="inlineStr">
+      <c r="D36" s="27" t="inlineStr">
         <is>
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E36" s="28" t="n"/>
-      <c r="F36" s="28" t="n"/>
-      <c r="G36" s="28" t="n"/>
-      <c r="H36" s="28" t="n"/>
-      <c r="I36" s="28" t="n"/>
-      <c r="J36" s="28" t="n"/>
-      <c r="K36" s="28" t="n"/>
-      <c r="L36" s="28" t="n"/>
-      <c r="M36" s="28" t="n"/>
-      <c r="N36" s="28" t="n"/>
-      <c r="O36" s="28" t="n"/>
-      <c r="P36" s="28" t="n"/>
-      <c r="Q36" s="28" t="n"/>
-      <c r="R36" s="28" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="inlineStr">
+      <c r="A37" s="27" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="inlineStr">
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
         <is>
           <t>TD 4H</t>
         </is>
       </c>
-      <c r="D37" s="28" t="inlineStr">
+      <c r="D37" s="27" t="inlineStr">
         <is>
           <t>TP 2H</t>
         </is>
       </c>
-      <c r="E37" s="28" t="n"/>
-      <c r="F37" s="28" t="n"/>
-      <c r="G37" s="28" t="n"/>
-      <c r="H37" s="28" t="n"/>
-      <c r="I37" s="28" t="n"/>
-      <c r="J37" s="28" t="n"/>
-      <c r="K37" s="28" t="n"/>
-      <c r="L37" s="28" t="n"/>
-      <c r="M37" s="28" t="n"/>
-      <c r="N37" s="28" t="n"/>
-      <c r="O37" s="28" t="n"/>
-      <c r="P37" s="28" t="n"/>
-      <c r="Q37" s="28" t="n"/>
-      <c r="R37" s="28" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
-      <c r="E38" s="28" t="n"/>
-      <c r="F38" s="28" t="n"/>
-      <c r="G38" s="28" t="n"/>
-      <c r="H38" s="28" t="n"/>
-      <c r="I38" s="28" t="n"/>
-      <c r="J38" s="28" t="n"/>
-      <c r="K38" s="28" t="n"/>
-      <c r="L38" s="28" t="n"/>
-      <c r="M38" s="28" t="n"/>
-      <c r="N38" s="28" t="n"/>
-      <c r="O38" s="28" t="n"/>
-      <c r="P38" s="28" t="n"/>
-      <c r="Q38" s="28" t="n"/>
-      <c r="R38" s="28" t="n"/>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
-      <c r="E39" s="28" t="n"/>
-      <c r="F39" s="28" t="n"/>
-      <c r="G39" s="28" t="n"/>
-      <c r="H39" s="28" t="n"/>
-      <c r="I39" s="28" t="n"/>
-      <c r="J39" s="28" t="n"/>
-      <c r="K39" s="28" t="n"/>
-      <c r="L39" s="28" t="n"/>
-      <c r="M39" s="28" t="n"/>
-      <c r="N39" s="28" t="n"/>
-      <c r="O39" s="28" t="n"/>
-      <c r="P39" s="28" t="n"/>
-      <c r="Q39" s="28" t="n"/>
-      <c r="R39" s="28" t="n"/>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
-      <c r="E40" s="28" t="n"/>
-      <c r="F40" s="28" t="n"/>
-      <c r="G40" s="28" t="n"/>
-      <c r="H40" s="28" t="n"/>
-      <c r="I40" s="28" t="n"/>
-      <c r="J40" s="28" t="n"/>
-      <c r="K40" s="28" t="n"/>
-      <c r="L40" s="28" t="n"/>
-      <c r="M40" s="28" t="n"/>
-      <c r="N40" s="28" t="n"/>
-      <c r="O40" s="28" t="n"/>
-      <c r="P40" s="28" t="n"/>
-      <c r="Q40" s="28" t="n"/>
-      <c r="R40" s="28" t="n"/>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
-      <c r="E41" s="28" t="n"/>
-      <c r="F41" s="28" t="n"/>
-      <c r="G41" s="28" t="n"/>
-      <c r="H41" s="28" t="n"/>
-      <c r="I41" s="28" t="n"/>
-      <c r="J41" s="28" t="n"/>
-      <c r="K41" s="28" t="n"/>
-      <c r="L41" s="28" t="n"/>
-      <c r="M41" s="28" t="n"/>
-      <c r="N41" s="28" t="n"/>
-      <c r="O41" s="28" t="n"/>
-      <c r="P41" s="28" t="n"/>
-      <c r="Q41" s="28" t="n"/>
-      <c r="R41" s="28" t="n"/>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
-      <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
-      <c r="D42" s="28" t="n"/>
-      <c r="E42" s="28" t="n"/>
-      <c r="F42" s="28" t="n"/>
-      <c r="G42" s="28" t="n"/>
-      <c r="H42" s="28" t="n"/>
-      <c r="I42" s="28" t="n"/>
-      <c r="J42" s="28" t="n"/>
-      <c r="K42" s="28" t="n"/>
-      <c r="L42" s="28" t="n"/>
-      <c r="M42" s="28" t="n"/>
-      <c r="N42" s="28" t="n"/>
-      <c r="O42" s="28" t="n"/>
-      <c r="P42" s="28" t="n"/>
-      <c r="Q42" s="28" t="n"/>
-      <c r="R42" s="28" t="n"/>
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
-      <c r="D43" s="28" t="n"/>
-      <c r="E43" s="28" t="n"/>
-      <c r="F43" s="28" t="n"/>
-      <c r="G43" s="28" t="n"/>
-      <c r="H43" s="28" t="n"/>
-      <c r="I43" s="28" t="n"/>
-      <c r="J43" s="28" t="n"/>
-      <c r="K43" s="28" t="n"/>
-      <c r="L43" s="28" t="n"/>
-      <c r="M43" s="28" t="n"/>
-      <c r="N43" s="28" t="n"/>
-      <c r="O43" s="28" t="n"/>
-      <c r="P43" s="28" t="n"/>
-      <c r="Q43" s="28" t="n"/>
-      <c r="R43" s="28" t="n"/>
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="28" t="n"/>
-      <c r="B44" s="28" t="n"/>
-      <c r="C44" s="28" t="n"/>
-      <c r="D44" s="28" t="n"/>
-      <c r="E44" s="28" t="n"/>
-      <c r="F44" s="28" t="n"/>
-      <c r="G44" s="28" t="n"/>
-      <c r="H44" s="28" t="n"/>
-      <c r="I44" s="28" t="n"/>
-      <c r="J44" s="28" t="n"/>
-      <c r="K44" s="28" t="n"/>
-      <c r="L44" s="28" t="n"/>
-      <c r="M44" s="28" t="n"/>
-      <c r="N44" s="28" t="n"/>
-      <c r="O44" s="28" t="n"/>
-      <c r="P44" s="28" t="n"/>
-      <c r="Q44" s="28" t="n"/>
-      <c r="R44" s="28" t="n"/>
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="28" t="n"/>
-      <c r="B45" s="28" t="n"/>
-      <c r="C45" s="28" t="n"/>
-      <c r="D45" s="28" t="n"/>
-      <c r="E45" s="28" t="n"/>
-      <c r="F45" s="28" t="n"/>
-      <c r="G45" s="28" t="n"/>
-      <c r="H45" s="28" t="n"/>
-      <c r="I45" s="28" t="n"/>
-      <c r="J45" s="28" t="n"/>
-      <c r="K45" s="28" t="n"/>
-      <c r="L45" s="28" t="n"/>
-      <c r="M45" s="28" t="n"/>
-      <c r="N45" s="28" t="n"/>
-      <c r="O45" s="28" t="n"/>
-      <c r="P45" s="28" t="n"/>
-      <c r="Q45" s="28" t="n"/>
-      <c r="R45" s="28" t="n"/>
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="28" t="n"/>
-      <c r="B46" s="28" t="n"/>
-      <c r="C46" s="28" t="n"/>
-      <c r="D46" s="28" t="n"/>
-      <c r="E46" s="28" t="n"/>
-      <c r="F46" s="28" t="n"/>
-      <c r="G46" s="28" t="n"/>
-      <c r="H46" s="28" t="n"/>
-      <c r="I46" s="28" t="n"/>
-      <c r="J46" s="28" t="n"/>
-      <c r="K46" s="28" t="n"/>
-      <c r="L46" s="28" t="n"/>
-      <c r="M46" s="28" t="n"/>
-      <c r="N46" s="28" t="n"/>
-      <c r="O46" s="28" t="n"/>
-      <c r="P46" s="28" t="n"/>
-      <c r="Q46" s="28" t="n"/>
-      <c r="R46" s="28" t="n"/>
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="28" t="n"/>
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="28" t="n"/>
-      <c r="D47" s="28" t="n"/>
-      <c r="E47" s="28" t="n"/>
-      <c r="F47" s="28" t="n"/>
-      <c r="G47" s="28" t="n"/>
-      <c r="H47" s="28" t="n"/>
-      <c r="I47" s="28" t="n"/>
-      <c r="J47" s="28" t="n"/>
-      <c r="K47" s="28" t="n"/>
-      <c r="L47" s="28" t="n"/>
-      <c r="M47" s="28" t="n"/>
-      <c r="N47" s="28" t="n"/>
-      <c r="O47" s="28" t="n"/>
-      <c r="P47" s="28" t="n"/>
-      <c r="Q47" s="28" t="n"/>
-      <c r="R47" s="28" t="n"/>
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="28" t="n"/>
-      <c r="B48" s="28" t="n"/>
-      <c r="C48" s="28" t="n"/>
-      <c r="D48" s="28" t="n"/>
-      <c r="E48" s="28" t="n"/>
-      <c r="F48" s="28" t="n"/>
-      <c r="G48" s="28" t="n"/>
-      <c r="H48" s="28" t="n"/>
-      <c r="I48" s="28" t="n"/>
-      <c r="J48" s="28" t="n"/>
-      <c r="K48" s="28" t="n"/>
-      <c r="L48" s="28" t="n"/>
-      <c r="M48" s="28" t="n"/>
-      <c r="N48" s="28" t="n"/>
-      <c r="O48" s="28" t="n"/>
-      <c r="P48" s="28" t="n"/>
-      <c r="Q48" s="28" t="n"/>
-      <c r="R48" s="28" t="n"/>
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="28" t="n"/>
-      <c r="B49" s="28" t="n"/>
-      <c r="C49" s="28" t="n"/>
-      <c r="D49" s="28" t="n"/>
-      <c r="E49" s="28" t="n"/>
-      <c r="F49" s="28" t="n"/>
-      <c r="G49" s="28" t="n"/>
-      <c r="H49" s="28" t="n"/>
-      <c r="I49" s="28" t="n"/>
-      <c r="J49" s="28" t="n"/>
-      <c r="K49" s="28" t="n"/>
-      <c r="L49" s="28" t="n"/>
-      <c r="M49" s="28" t="n"/>
-      <c r="N49" s="28" t="n"/>
-      <c r="O49" s="28" t="n"/>
-      <c r="P49" s="28" t="n"/>
-      <c r="Q49" s="28" t="n"/>
-      <c r="R49" s="28" t="n"/>
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="28" t="n"/>
-      <c r="B50" s="28" t="n"/>
-      <c r="C50" s="28" t="n"/>
-      <c r="D50" s="28" t="n"/>
-      <c r="E50" s="28" t="n"/>
-      <c r="F50" s="28" t="n"/>
-      <c r="G50" s="28" t="n"/>
-      <c r="H50" s="28" t="n"/>
-      <c r="I50" s="28" t="n"/>
-      <c r="J50" s="28" t="n"/>
-      <c r="K50" s="28" t="n"/>
-      <c r="L50" s="28" t="n"/>
-      <c r="M50" s="28" t="n"/>
-      <c r="N50" s="28" t="n"/>
-      <c r="O50" s="28" t="n"/>
-      <c r="P50" s="28" t="n"/>
-      <c r="Q50" s="28" t="n"/>
-      <c r="R50" s="28" t="n"/>
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="28" t="n"/>
-      <c r="B51" s="28" t="n"/>
-      <c r="C51" s="28" t="n"/>
-      <c r="D51" s="29" t="n"/>
-      <c r="E51" s="28" t="n"/>
-      <c r="F51" s="28" t="n"/>
-      <c r="G51" s="28" t="n"/>
-      <c r="H51" s="28" t="n"/>
-      <c r="I51" s="28" t="n"/>
-      <c r="J51" s="28" t="n"/>
-      <c r="K51" s="28" t="n"/>
-      <c r="L51" s="28" t="n"/>
-      <c r="M51" s="28" t="n"/>
-      <c r="N51" s="28" t="n"/>
-      <c r="O51" s="28" t="n"/>
-      <c r="P51" s="28" t="n"/>
-      <c r="Q51" s="28" t="n"/>
-      <c r="R51" s="28" t="n"/>
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="28" t="n"/>
-      <c r="B52" s="28" t="n"/>
-      <c r="C52" s="28" t="n"/>
-      <c r="D52" s="28" t="n"/>
-      <c r="E52" s="28" t="n"/>
-      <c r="F52" s="28" t="n"/>
-      <c r="G52" s="28" t="n"/>
-      <c r="H52" s="28" t="n"/>
-      <c r="I52" s="28" t="n"/>
-      <c r="J52" s="28" t="n"/>
-      <c r="K52" s="28" t="n"/>
-      <c r="L52" s="28" t="n"/>
-      <c r="M52" s="28" t="n"/>
-      <c r="N52" s="28" t="n"/>
-      <c r="O52" s="28" t="n"/>
-      <c r="P52" s="28" t="n"/>
-      <c r="Q52" s="28" t="n"/>
-      <c r="R52" s="28" t="n"/>
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="42" t="inlineStr">
+      <c r="A53" s="36" t="inlineStr">
         <is>
           <t>Service prévisionnel vacataires</t>
         </is>
       </c>
-      <c r="C53" s="29" t="inlineStr">
+      <c r="C53" s="28" t="inlineStr">
         <is>
           <t>(Ne pas oublier d’inclure les tests)</t>
         </is>
       </c>
-      <c r="D53" s="28" t="n"/>
-      <c r="E53" s="28" t="n"/>
-      <c r="F53" s="28" t="n"/>
-      <c r="G53" s="28" t="n"/>
-      <c r="H53" s="28" t="n"/>
-      <c r="I53" s="28" t="n"/>
-      <c r="J53" s="28" t="n"/>
-      <c r="K53" s="28" t="n"/>
-      <c r="L53" s="28" t="n"/>
-      <c r="M53" s="28" t="n"/>
-      <c r="N53" s="28" t="n"/>
-      <c r="O53" s="28" t="n"/>
-      <c r="P53" s="28" t="n"/>
-      <c r="Q53" s="28" t="n"/>
-      <c r="R53" s="28" t="n"/>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" s="19" t="inlineStr">
@@ -3762,9 +3730,9 @@
       <c r="O54" s="65" t="n"/>
       <c r="P54" s="65" t="n"/>
       <c r="Q54" s="66" t="n"/>
-      <c r="R54" s="28" t="n"/>
-    </row>
-    <row r="55" ht="64.5" customHeight="1">
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
       <c r="A55" s="64" t="n"/>
       <c r="B55" s="60" t="n"/>
       <c r="C55" s="67" t="n"/>
@@ -3857,22 +3825,12 @@
         <v>0</v>
       </c>
       <c r="L56" s="21" t="n"/>
-      <c r="M56" s="24" t="n">
-        <v>20</v>
-      </c>
+      <c r="M56" s="24" t="n"/>
       <c r="N56" s="21" t="n"/>
-      <c r="O56" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="P56" s="22" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="Q56" s="23" t="n">
-        <v>43</v>
-      </c>
-      <c r="R56" s="23" t="n">
-        <v>43</v>
-      </c>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="68" t="n"/>
@@ -3891,22 +3849,12 @@
         <v>0</v>
       </c>
       <c r="L57" s="21" t="n"/>
-      <c r="M57" s="24" t="n">
-        <v>20</v>
-      </c>
+      <c r="M57" s="24" t="n"/>
       <c r="N57" s="21" t="n"/>
-      <c r="O57" s="24" t="n">
-        <v>23</v>
-      </c>
-      <c r="P57" s="22" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="Q57" s="23" t="n">
-        <v>43</v>
-      </c>
-      <c r="R57" s="23" t="n">
-        <v>43</v>
-      </c>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="21" t="n"/>
@@ -3969,71 +3917,71 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="28" t="n"/>
-      <c r="B60" s="28" t="n"/>
-      <c r="C60" s="28" t="n"/>
-      <c r="D60" s="28" t="n"/>
-      <c r="E60" s="28" t="n"/>
-      <c r="F60" s="28" t="n"/>
-      <c r="G60" s="28" t="n"/>
-      <c r="H60" s="28" t="n"/>
-      <c r="I60" s="28" t="n"/>
-      <c r="J60" s="28" t="n"/>
-      <c r="K60" s="28" t="n"/>
-      <c r="L60" s="28" t="n"/>
-      <c r="M60" s="28" t="n"/>
-      <c r="N60" s="28" t="n"/>
-      <c r="O60" s="28" t="n"/>
-      <c r="P60" s="28" t="n"/>
-      <c r="Q60" s="28" t="n"/>
-      <c r="R60" s="28" t="n"/>
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="28" t="n"/>
-      <c r="B61" s="28" t="n"/>
-      <c r="C61" s="28" t="n"/>
-      <c r="D61" s="28" t="n"/>
-      <c r="E61" s="28" t="n"/>
-      <c r="F61" s="28" t="n"/>
-      <c r="G61" s="28" t="n"/>
-      <c r="H61" s="28" t="n"/>
-      <c r="I61" s="28" t="n"/>
-      <c r="J61" s="28" t="n"/>
-      <c r="K61" s="28" t="n"/>
-      <c r="L61" s="28" t="n"/>
-      <c r="M61" s="28" t="n"/>
-      <c r="N61" s="28" t="n"/>
-      <c r="O61" s="28" t="n"/>
-      <c r="P61" s="28" t="n"/>
-      <c r="Q61" s="28" t="n"/>
-      <c r="R61" s="28" t="n"/>
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="42" t="inlineStr">
+      <c r="A62" s="36" t="inlineStr">
         <is>
           <t>Service prévisionnel titulaires</t>
         </is>
       </c>
-      <c r="C62" s="29" t="inlineStr">
+      <c r="C62" s="28" t="inlineStr">
         <is>
           <t>(Ne pas oublier d’inclure les tests)</t>
         </is>
       </c>
-      <c r="D62" s="28" t="n"/>
-      <c r="E62" s="28" t="n"/>
-      <c r="F62" s="28" t="n"/>
-      <c r="G62" s="28" t="n"/>
-      <c r="H62" s="28" t="n"/>
-      <c r="I62" s="28" t="n"/>
-      <c r="J62" s="28" t="n"/>
-      <c r="K62" s="28" t="n"/>
-      <c r="L62" s="28" t="n"/>
-      <c r="M62" s="28" t="n"/>
-      <c r="N62" s="28" t="n"/>
-      <c r="O62" s="28" t="n"/>
-      <c r="P62" s="28" t="n"/>
-      <c r="Q62" s="28" t="n"/>
-      <c r="R62" s="28" t="n"/>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" s="19" t="inlineStr">
@@ -4080,9 +4028,9 @@
       <c r="O63" s="65" t="n"/>
       <c r="P63" s="65" t="n"/>
       <c r="Q63" s="66" t="n"/>
-      <c r="R63" s="28" t="n"/>
-    </row>
-    <row r="64" ht="64.5" customHeight="1">
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
       <c r="A64" s="64" t="n"/>
       <c r="B64" s="60" t="n"/>
       <c r="C64" s="67" t="n"/>
@@ -4174,25 +4122,13 @@
       <c r="K65" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L65" s="24" t="n">
-        <v>10</v>
-      </c>
-      <c r="M65" s="24" t="n">
-        <v>40</v>
-      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
       <c r="N65" s="21" t="n"/>
-      <c r="O65" s="24" t="n">
-        <v>43</v>
-      </c>
-      <c r="P65" s="22" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q65" s="23" t="n">
-        <v>98</v>
-      </c>
-      <c r="R65" s="23" t="n">
-        <v>98</v>
-      </c>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="21" t="n"/>
@@ -4293,12 +4229,12 @@
     <mergeCell ref="D28:H31"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="L63:Q63"/>
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="A63:B64"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A56:B56"/>
@@ -4312,9 +4248,9 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="F54:K54"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E22:F22"/>

--- a/SAE_3_01/fichiers genere/S6AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S6AFI.xlsx
@@ -7,7 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R6.A.05 Développement avancé" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R6.01 Initiation à l'entrprenar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R6.02 Droit du numérique et de " sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R6.03 Communication   organisat" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R6.04 PPP" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R6.A.05 Développement avancé" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R6.A.06 Maintenance applicative" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -2515,7 +2520,7 @@
       </c>
       <c r="B2" s="27" t="inlineStr">
         <is>
-          <t>R6.A.05 Développement avancé</t>
+          <t>R6.01 Initiation à l'entrprenariat</t>
         </is>
       </c>
       <c r="E2" s="27" t="n"/>
@@ -2526,7 +2531,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>Christine MAKSSOUD</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -2600,13 +2605,13 @@
     <row r="5">
       <c r="A5" s="27" t="n"/>
       <c r="B5" s="27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5" s="27" t="n"/>
       <c r="F5" s="27" t="n"/>
@@ -3263,22 +3268,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -3295,22 +3288,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-12</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -3327,22 +3308,8805 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2024-02-19</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>R6.02 Droit du numérique et de la propriété intellectuelle</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="27" t="inlineStr">
+        <is>
+          <t>Christine MAKSSOUD</t>
+        </is>
+      </c>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="26" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="36" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>R6.03 Communication : organisation et diffusion de l'information</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="27" t="inlineStr">
+        <is>
+          <t>Alexandra SALOU</t>
+        </is>
+      </c>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="26" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="36" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>R6.04 PPP</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="27" t="inlineStr">
+        <is>
+          <t>Alexandra SALOU</t>
+        </is>
+      </c>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="26" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="36" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>R6.A.05 Développement avancé</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="27" t="inlineStr">
+        <is>
+          <t>Frédéric FLOUVAT</t>
+        </is>
+      </c>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="26" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="36" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+      <c r="I37" s="27" t="n"/>
+      <c r="J37" s="27" t="n"/>
+      <c r="K37" s="27" t="n"/>
+      <c r="L37" s="27" t="n"/>
+      <c r="M37" s="27" t="n"/>
+      <c r="N37" s="27" t="n"/>
+      <c r="O37" s="27" t="n"/>
+      <c r="P37" s="27" t="n"/>
+      <c r="Q37" s="27" t="n"/>
+      <c r="R37" s="27" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+      <c r="I38" s="27" t="n"/>
+      <c r="J38" s="27" t="n"/>
+      <c r="K38" s="27" t="n"/>
+      <c r="L38" s="27" t="n"/>
+      <c r="M38" s="27" t="n"/>
+      <c r="N38" s="27" t="n"/>
+      <c r="O38" s="27" t="n"/>
+      <c r="P38" s="27" t="n"/>
+      <c r="Q38" s="27" t="n"/>
+      <c r="R38" s="27" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+      <c r="I39" s="27" t="n"/>
+      <c r="J39" s="27" t="n"/>
+      <c r="K39" s="27" t="n"/>
+      <c r="L39" s="27" t="n"/>
+      <c r="M39" s="27" t="n"/>
+      <c r="N39" s="27" t="n"/>
+      <c r="O39" s="27" t="n"/>
+      <c r="P39" s="27" t="n"/>
+      <c r="Q39" s="27" t="n"/>
+      <c r="R39" s="27" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+      <c r="I40" s="27" t="n"/>
+      <c r="J40" s="27" t="n"/>
+      <c r="K40" s="27" t="n"/>
+      <c r="L40" s="27" t="n"/>
+      <c r="M40" s="27" t="n"/>
+      <c r="N40" s="27" t="n"/>
+      <c r="O40" s="27" t="n"/>
+      <c r="P40" s="27" t="n"/>
+      <c r="Q40" s="27" t="n"/>
+      <c r="R40" s="27" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+      <c r="I41" s="27" t="n"/>
+      <c r="J41" s="27" t="n"/>
+      <c r="K41" s="27" t="n"/>
+      <c r="L41" s="27" t="n"/>
+      <c r="M41" s="27" t="n"/>
+      <c r="N41" s="27" t="n"/>
+      <c r="O41" s="27" t="n"/>
+      <c r="P41" s="27" t="n"/>
+      <c r="Q41" s="27" t="n"/>
+      <c r="R41" s="27" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="27" t="n"/>
+      <c r="B42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+      <c r="I42" s="27" t="n"/>
+      <c r="J42" s="27" t="n"/>
+      <c r="K42" s="27" t="n"/>
+      <c r="L42" s="27" t="n"/>
+      <c r="M42" s="27" t="n"/>
+      <c r="N42" s="27" t="n"/>
+      <c r="O42" s="27" t="n"/>
+      <c r="P42" s="27" t="n"/>
+      <c r="Q42" s="27" t="n"/>
+      <c r="R42" s="27" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="27" t="n"/>
+      <c r="B43" s="27" t="n"/>
+      <c r="C43" s="27" t="n"/>
+      <c r="D43" s="27" t="n"/>
+      <c r="E43" s="27" t="n"/>
+      <c r="F43" s="27" t="n"/>
+      <c r="G43" s="27" t="n"/>
+      <c r="H43" s="27" t="n"/>
+      <c r="I43" s="27" t="n"/>
+      <c r="J43" s="27" t="n"/>
+      <c r="K43" s="27" t="n"/>
+      <c r="L43" s="27" t="n"/>
+      <c r="M43" s="27" t="n"/>
+      <c r="N43" s="27" t="n"/>
+      <c r="O43" s="27" t="n"/>
+      <c r="P43" s="27" t="n"/>
+      <c r="Q43" s="27" t="n"/>
+      <c r="R43" s="27" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="27" t="n"/>
+      <c r="B44" s="27" t="n"/>
+      <c r="C44" s="27" t="n"/>
+      <c r="D44" s="27" t="n"/>
+      <c r="E44" s="27" t="n"/>
+      <c r="F44" s="27" t="n"/>
+      <c r="G44" s="27" t="n"/>
+      <c r="H44" s="27" t="n"/>
+      <c r="I44" s="27" t="n"/>
+      <c r="J44" s="27" t="n"/>
+      <c r="K44" s="27" t="n"/>
+      <c r="L44" s="27" t="n"/>
+      <c r="M44" s="27" t="n"/>
+      <c r="N44" s="27" t="n"/>
+      <c r="O44" s="27" t="n"/>
+      <c r="P44" s="27" t="n"/>
+      <c r="Q44" s="27" t="n"/>
+      <c r="R44" s="27" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="27" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+      <c r="I45" s="27" t="n"/>
+      <c r="J45" s="27" t="n"/>
+      <c r="K45" s="27" t="n"/>
+      <c r="L45" s="27" t="n"/>
+      <c r="M45" s="27" t="n"/>
+      <c r="N45" s="27" t="n"/>
+      <c r="O45" s="27" t="n"/>
+      <c r="P45" s="27" t="n"/>
+      <c r="Q45" s="27" t="n"/>
+      <c r="R45" s="27" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="27" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+      <c r="I46" s="27" t="n"/>
+      <c r="J46" s="27" t="n"/>
+      <c r="K46" s="27" t="n"/>
+      <c r="L46" s="27" t="n"/>
+      <c r="M46" s="27" t="n"/>
+      <c r="N46" s="27" t="n"/>
+      <c r="O46" s="27" t="n"/>
+      <c r="P46" s="27" t="n"/>
+      <c r="Q46" s="27" t="n"/>
+      <c r="R46" s="27" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="27" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+      <c r="I47" s="27" t="n"/>
+      <c r="J47" s="27" t="n"/>
+      <c r="K47" s="27" t="n"/>
+      <c r="L47" s="27" t="n"/>
+      <c r="M47" s="27" t="n"/>
+      <c r="N47" s="27" t="n"/>
+      <c r="O47" s="27" t="n"/>
+      <c r="P47" s="27" t="n"/>
+      <c r="Q47" s="27" t="n"/>
+      <c r="R47" s="27" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="27" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="27" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="27" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="27" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="27" t="n"/>
+      <c r="P48" s="27" t="n"/>
+      <c r="Q48" s="27" t="n"/>
+      <c r="R48" s="27" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="27" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+      <c r="I49" s="27" t="n"/>
+      <c r="J49" s="27" t="n"/>
+      <c r="K49" s="27" t="n"/>
+      <c r="L49" s="27" t="n"/>
+      <c r="M49" s="27" t="n"/>
+      <c r="N49" s="27" t="n"/>
+      <c r="O49" s="27" t="n"/>
+      <c r="P49" s="27" t="n"/>
+      <c r="Q49" s="27" t="n"/>
+      <c r="R49" s="27" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="27" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+      <c r="I50" s="27" t="n"/>
+      <c r="J50" s="27" t="n"/>
+      <c r="K50" s="27" t="n"/>
+      <c r="L50" s="27" t="n"/>
+      <c r="M50" s="27" t="n"/>
+      <c r="N50" s="27" t="n"/>
+      <c r="O50" s="27" t="n"/>
+      <c r="P50" s="27" t="n"/>
+      <c r="Q50" s="27" t="n"/>
+      <c r="R50" s="27" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="27" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="28" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+      <c r="I51" s="27" t="n"/>
+      <c r="J51" s="27" t="n"/>
+      <c r="K51" s="27" t="n"/>
+      <c r="L51" s="27" t="n"/>
+      <c r="M51" s="27" t="n"/>
+      <c r="N51" s="27" t="n"/>
+      <c r="O51" s="27" t="n"/>
+      <c r="P51" s="27" t="n"/>
+      <c r="Q51" s="27" t="n"/>
+      <c r="R51" s="27" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="27" t="n"/>
+      <c r="B52" s="27" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="27" t="n"/>
+      <c r="E52" s="27" t="n"/>
+      <c r="F52" s="27" t="n"/>
+      <c r="G52" s="27" t="n"/>
+      <c r="H52" s="27" t="n"/>
+      <c r="I52" s="27" t="n"/>
+      <c r="J52" s="27" t="n"/>
+      <c r="K52" s="27" t="n"/>
+      <c r="L52" s="27" t="n"/>
+      <c r="M52" s="27" t="n"/>
+      <c r="N52" s="27" t="n"/>
+      <c r="O52" s="27" t="n"/>
+      <c r="P52" s="27" t="n"/>
+      <c r="Q52" s="27" t="n"/>
+      <c r="R52" s="27" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel vacataires</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D53" s="27" t="n"/>
+      <c r="E53" s="27" t="n"/>
+      <c r="F53" s="27" t="n"/>
+      <c r="G53" s="27" t="n"/>
+      <c r="H53" s="27" t="n"/>
+      <c r="I53" s="27" t="n"/>
+      <c r="J53" s="27" t="n"/>
+      <c r="K53" s="27" t="n"/>
+      <c r="L53" s="27" t="n"/>
+      <c r="M53" s="27" t="n"/>
+      <c r="N53" s="27" t="n"/>
+      <c r="O53" s="27" t="n"/>
+      <c r="P53" s="27" t="n"/>
+      <c r="Q53" s="27" t="n"/>
+      <c r="R53" s="27" t="n"/>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B54" s="58" t="n"/>
+      <c r="C54" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D54" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E54" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G54" s="65" t="n"/>
+      <c r="H54" s="65" t="n"/>
+      <c r="I54" s="65" t="n"/>
+      <c r="J54" s="65" t="n"/>
+      <c r="K54" s="66" t="n"/>
+      <c r="L54" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M54" s="65" t="n"/>
+      <c r="N54" s="65" t="n"/>
+      <c r="O54" s="65" t="n"/>
+      <c r="P54" s="65" t="n"/>
+      <c r="Q54" s="66" t="n"/>
+      <c r="R54" s="27" t="n"/>
+    </row>
+    <row r="55" ht="68" customHeight="1">
+      <c r="A55" s="64" t="n"/>
+      <c r="B55" s="60" t="n"/>
+      <c r="C55" s="67" t="n"/>
+      <c r="D55" s="67" t="n"/>
+      <c r="E55" s="67" t="n"/>
+      <c r="F55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L55" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M55" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O55" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P55" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R55" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="n"/>
+      <c r="B56" s="66" t="n"/>
+      <c r="C56" s="21" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="21" t="n"/>
+      <c r="G56" s="21" t="n"/>
+      <c r="H56" s="21" t="n"/>
+      <c r="I56" s="21" t="n"/>
+      <c r="J56" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="21" t="n"/>
+      <c r="M56" s="24" t="n"/>
+      <c r="N56" s="21" t="n"/>
+      <c r="O56" s="24" t="n"/>
+      <c r="P56" s="22" t="n"/>
+      <c r="Q56" s="23" t="n"/>
+      <c r="R56" s="23" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="68" t="n"/>
+      <c r="B57" s="66" t="n"/>
+      <c r="C57" s="21" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="21" t="n"/>
+      <c r="G57" s="21" t="n"/>
+      <c r="H57" s="21" t="n"/>
+      <c r="I57" s="21" t="n"/>
+      <c r="J57" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="21" t="n"/>
+      <c r="M57" s="24" t="n"/>
+      <c r="N57" s="21" t="n"/>
+      <c r="O57" s="24" t="n"/>
+      <c r="P57" s="22" t="n"/>
+      <c r="Q57" s="23" t="n"/>
+      <c r="R57" s="23" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="21" t="n"/>
+      <c r="B58" s="66" t="n"/>
+      <c r="C58" s="21" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="21" t="n"/>
+      <c r="G58" s="21" t="n"/>
+      <c r="H58" s="21" t="n"/>
+      <c r="I58" s="21" t="n"/>
+      <c r="J58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="21" t="n"/>
+      <c r="M58" s="21" t="n"/>
+      <c r="N58" s="21" t="n"/>
+      <c r="O58" s="21" t="n"/>
+      <c r="P58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="n"/>
+      <c r="B59" s="66" t="n"/>
+      <c r="C59" s="21" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="21" t="n"/>
+      <c r="G59" s="21" t="n"/>
+      <c r="H59" s="21" t="n"/>
+      <c r="I59" s="21" t="n"/>
+      <c r="J59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="21" t="n"/>
+      <c r="M59" s="21" t="n"/>
+      <c r="N59" s="21" t="n"/>
+      <c r="O59" s="21" t="n"/>
+      <c r="P59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="27" t="n"/>
+      <c r="B60" s="27" t="n"/>
+      <c r="C60" s="27" t="n"/>
+      <c r="D60" s="27" t="n"/>
+      <c r="E60" s="27" t="n"/>
+      <c r="F60" s="27" t="n"/>
+      <c r="G60" s="27" t="n"/>
+      <c r="H60" s="27" t="n"/>
+      <c r="I60" s="27" t="n"/>
+      <c r="J60" s="27" t="n"/>
+      <c r="K60" s="27" t="n"/>
+      <c r="L60" s="27" t="n"/>
+      <c r="M60" s="27" t="n"/>
+      <c r="N60" s="27" t="n"/>
+      <c r="O60" s="27" t="n"/>
+      <c r="P60" s="27" t="n"/>
+      <c r="Q60" s="27" t="n"/>
+      <c r="R60" s="27" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="27" t="n"/>
+      <c r="B61" s="27" t="n"/>
+      <c r="C61" s="27" t="n"/>
+      <c r="D61" s="27" t="n"/>
+      <c r="E61" s="27" t="n"/>
+      <c r="F61" s="27" t="n"/>
+      <c r="G61" s="27" t="n"/>
+      <c r="H61" s="27" t="n"/>
+      <c r="I61" s="27" t="n"/>
+      <c r="J61" s="27" t="n"/>
+      <c r="K61" s="27" t="n"/>
+      <c r="L61" s="27" t="n"/>
+      <c r="M61" s="27" t="n"/>
+      <c r="N61" s="27" t="n"/>
+      <c r="O61" s="27" t="n"/>
+      <c r="P61" s="27" t="n"/>
+      <c r="Q61" s="27" t="n"/>
+      <c r="R61" s="27" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="36" t="inlineStr">
+        <is>
+          <t>Service prévisionnel titulaires</t>
+        </is>
+      </c>
+      <c r="C62" s="28" t="inlineStr">
+        <is>
+          <t>(Ne pas oublier d’inclure les tests)</t>
+        </is>
+      </c>
+      <c r="D62" s="27" t="n"/>
+      <c r="E62" s="27" t="n"/>
+      <c r="F62" s="27" t="n"/>
+      <c r="G62" s="27" t="n"/>
+      <c r="H62" s="27" t="n"/>
+      <c r="I62" s="27" t="n"/>
+      <c r="J62" s="27" t="n"/>
+      <c r="K62" s="27" t="n"/>
+      <c r="L62" s="27" t="n"/>
+      <c r="M62" s="27" t="n"/>
+      <c r="N62" s="27" t="n"/>
+      <c r="O62" s="27" t="n"/>
+      <c r="P62" s="27" t="n"/>
+      <c r="Q62" s="27" t="n"/>
+      <c r="R62" s="27" t="n"/>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" s="19" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B63" s="58" t="n"/>
+      <c r="C63" s="19" t="inlineStr">
+        <is>
+          <t>BUT 1 / BUT 2 / BUT 3</t>
+        </is>
+      </c>
+      <c r="D63" s="19" t="inlineStr">
+        <is>
+          <t>Parcours A Parcours B</t>
+        </is>
+      </c>
+      <c r="E63" s="20" t="inlineStr">
+        <is>
+          <t>FI
+FA</t>
+        </is>
+      </c>
+      <c r="F63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de septembre à décembre 2022</t>
+        </is>
+      </c>
+      <c r="G63" s="65" t="n"/>
+      <c r="H63" s="65" t="n"/>
+      <c r="I63" s="65" t="n"/>
+      <c r="J63" s="65" t="n"/>
+      <c r="K63" s="66" t="n"/>
+      <c r="L63" s="20" t="inlineStr">
+        <is>
+          <t>Nombre d'heures prévues
+de janvier à août 2023</t>
+        </is>
+      </c>
+      <c r="M63" s="65" t="n"/>
+      <c r="N63" s="65" t="n"/>
+      <c r="O63" s="65" t="n"/>
+      <c r="P63" s="65" t="n"/>
+      <c r="Q63" s="66" t="n"/>
+      <c r="R63" s="27" t="n"/>
+    </row>
+    <row r="64" ht="68" customHeight="1">
+      <c r="A64" s="64" t="n"/>
+      <c r="B64" s="60" t="n"/>
+      <c r="C64" s="67" t="n"/>
+      <c r="D64" s="67" t="n"/>
+      <c r="E64" s="67" t="n"/>
+      <c r="F64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="G64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="H64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="I64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="J64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="K64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="L64" s="19" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="M64" s="19" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="N64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(1/2 groupe)</t>
+        </is>
+      </c>
+      <c r="O64" s="20" t="inlineStr">
+        <is>
+          <t>TP
+(non dédoublé)</t>
+        </is>
+      </c>
+      <c r="P64" s="19" t="inlineStr">
+        <is>
+          <t>TP à déclarer ARES</t>
+        </is>
+      </c>
+      <c r="Q64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+      <c r="R64" s="19" t="inlineStr">
+        <is>
+          <t>Total en HETD</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="24" t="n"/>
+      <c r="B65" s="66" t="n"/>
+      <c r="C65" s="21" t="n"/>
+      <c r="D65" s="21" t="n"/>
+      <c r="E65" s="21" t="n"/>
+      <c r="F65" s="21" t="n"/>
+      <c r="G65" s="21" t="n"/>
+      <c r="H65" s="21" t="n"/>
+      <c r="I65" s="21" t="n"/>
+      <c r="J65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="24" t="n"/>
+      <c r="M65" s="24" t="n"/>
+      <c r="N65" s="21" t="n"/>
+      <c r="O65" s="24" t="n"/>
+      <c r="P65" s="22" t="n"/>
+      <c r="Q65" s="23" t="n"/>
+      <c r="R65" s="23" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="21" t="n"/>
+      <c r="B66" s="66" t="n"/>
+      <c r="C66" s="21" t="n"/>
+      <c r="D66" s="21" t="n"/>
+      <c r="E66" s="21" t="n"/>
+      <c r="F66" s="21" t="n"/>
+      <c r="G66" s="21" t="n"/>
+      <c r="H66" s="21" t="n"/>
+      <c r="I66" s="21" t="n"/>
+      <c r="J66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="21" t="n"/>
+      <c r="M66" s="21" t="n"/>
+      <c r="N66" s="21" t="n"/>
+      <c r="O66" s="21" t="n"/>
+      <c r="P66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="n"/>
+      <c r="B67" s="66" t="n"/>
+      <c r="C67" s="21" t="n"/>
+      <c r="D67" s="21" t="n"/>
+      <c r="E67" s="21" t="n"/>
+      <c r="F67" s="21" t="n"/>
+      <c r="G67" s="21" t="n"/>
+      <c r="H67" s="21" t="n"/>
+      <c r="I67" s="21" t="n"/>
+      <c r="J67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="21" t="n"/>
+      <c r="M67" s="21" t="n"/>
+      <c r="N67" s="21" t="n"/>
+      <c r="O67" s="21" t="n"/>
+      <c r="P67" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="21" t="n"/>
+      <c r="B68" s="66" t="n"/>
+      <c r="C68" s="21" t="n"/>
+      <c r="D68" s="21" t="n"/>
+      <c r="E68" s="21" t="n"/>
+      <c r="F68" s="21" t="n"/>
+      <c r="G68" s="21" t="n"/>
+      <c r="H68" s="21" t="n"/>
+      <c r="I68" s="21" t="n"/>
+      <c r="J68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="21" t="n"/>
+      <c r="M68" s="21" t="n"/>
+      <c r="N68" s="21" t="n"/>
+      <c r="O68" s="21" t="n"/>
+      <c r="P68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D28:H31"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="L54:Q54"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="L63:Q63"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A63:B64"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.33203125" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="n"/>
+      <c r="B1" s="27" t="n"/>
+      <c r="C1" s="27" t="n"/>
+      <c r="D1" s="27" t="n"/>
+      <c r="E1" s="27" t="n"/>
+      <c r="F1" s="27" t="n"/>
+      <c r="G1" s="27" t="n"/>
+      <c r="H1" s="27" t="n"/>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
+      <c r="L1" s="27" t="n"/>
+      <c r="M1" s="27" t="n"/>
+      <c r="N1" s="27" t="n"/>
+      <c r="O1" s="27" t="n"/>
+      <c r="P1" s="27" t="n"/>
+      <c r="Q1" s="27" t="n"/>
+      <c r="R1" s="27" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Ressource</t>
+        </is>
+      </c>
+      <c r="B2" s="27" t="inlineStr">
+        <is>
+          <t>R6.A.06 Maintenance applicative</t>
+        </is>
+      </c>
+      <c r="E2" s="27" t="n"/>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="G2" s="27" t="inlineStr">
+        <is>
+          <t>Frédéric FLOUVAT</t>
+        </is>
+      </c>
+      <c r="H2" s="27" t="n"/>
+      <c r="I2" s="27" t="n"/>
+      <c r="J2" s="27" t="n"/>
+      <c r="K2" s="27" t="n"/>
+      <c r="L2" s="27" t="n"/>
+      <c r="M2" s="27" t="n"/>
+      <c r="N2" s="27" t="n"/>
+      <c r="O2" s="27" t="n"/>
+      <c r="P2" s="27" t="n"/>
+      <c r="Q2" s="27" t="n"/>
+      <c r="R2" s="27" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n"/>
+      <c r="B3" s="27" t="n"/>
+      <c r="C3" s="27" t="n"/>
+      <c r="D3" s="27" t="n"/>
+      <c r="E3" s="27" t="n"/>
+      <c r="F3" s="27" t="n"/>
+      <c r="G3" s="27" t="n"/>
+      <c r="H3" s="27" t="n"/>
+      <c r="I3" s="27" t="n"/>
+      <c r="J3" s="27" t="n"/>
+      <c r="K3" s="27" t="n"/>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="O3" s="27" t="n"/>
+      <c r="P3" s="27" t="n"/>
+      <c r="Q3" s="27" t="n"/>
+      <c r="R3" s="27" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>Maquette</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="C4" s="28" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="D4" s="28" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="E4" s="27" t="n"/>
+      <c r="F4" s="27" t="n"/>
+      <c r="G4" s="27" t="n"/>
+      <c r="H4" s="27" t="n"/>
+      <c r="I4" s="27" t="n"/>
+      <c r="J4" s="27" t="n"/>
+      <c r="K4" s="27" t="n"/>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="O4" s="27" t="n"/>
+      <c r="P4" s="27" t="n"/>
+      <c r="Q4" s="27" t="n"/>
+      <c r="R4" s="27" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="n"/>
+      <c r="B5" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="27" t="n"/>
+      <c r="F5" s="27" t="n"/>
+      <c r="G5" s="27" t="n"/>
+      <c r="H5" s="27" t="n"/>
+      <c r="I5" s="27" t="n"/>
+      <c r="J5" s="27" t="n"/>
+      <c r="K5" s="27" t="n"/>
+      <c r="L5" s="27" t="n"/>
+      <c r="M5" s="27" t="n"/>
+      <c r="N5" s="27" t="n"/>
+      <c r="O5" s="27" t="n"/>
+      <c r="P5" s="27" t="n"/>
+      <c r="Q5" s="27" t="n"/>
+      <c r="R5" s="27" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n"/>
+      <c r="B6" s="27" t="n"/>
+      <c r="C6" s="27" t="n"/>
+      <c r="D6" s="27" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="F6" s="27" t="n"/>
+      <c r="G6" s="27" t="n"/>
+      <c r="H6" s="27" t="n"/>
+      <c r="I6" s="27" t="n"/>
+      <c r="J6" s="27" t="n"/>
+      <c r="K6" s="27" t="n"/>
+      <c r="L6" s="27" t="n"/>
+      <c r="M6" s="27" t="n"/>
+      <c r="N6" s="27" t="n"/>
+      <c r="O6" s="27" t="n"/>
+      <c r="P6" s="27" t="n"/>
+      <c r="Q6" s="27" t="n"/>
+      <c r="R6" s="27" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="36" t="inlineStr">
+        <is>
+          <t>Intervenants</t>
+        </is>
+      </c>
+      <c r="B7" s="28" t="inlineStr">
+        <is>
+          <t>Si vacataires, préciser l’adresse mail. Si vacataire inconnu à ce jour, indiquer XX (voir XX1, XX2)</t>
+        </is>
+      </c>
+      <c r="M7" s="27" t="n"/>
+      <c r="N7" s="27" t="n"/>
+      <c r="O7" s="27" t="n"/>
+      <c r="P7" s="27" t="n"/>
+      <c r="Q7" s="27" t="n"/>
+      <c r="R7" s="27" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="n"/>
+      <c r="C8" s="27" t="n"/>
+      <c r="D8" s="27" t="n"/>
+      <c r="E8" s="27" t="n"/>
+      <c r="F8" s="27" t="n"/>
+      <c r="G8" s="27" t="n"/>
+      <c r="H8" s="27" t="n"/>
+      <c r="I8" s="27" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+      <c r="L8" s="27" t="n"/>
+      <c r="M8" s="27" t="n"/>
+      <c r="N8" s="27" t="n"/>
+      <c r="O8" s="27" t="n"/>
+      <c r="P8" s="27" t="n"/>
+      <c r="Q8" s="27" t="n"/>
+      <c r="R8" s="27" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+      <c r="I9" s="27" t="n"/>
+      <c r="J9" s="27" t="n"/>
+      <c r="K9" s="27" t="n"/>
+      <c r="L9" s="27" t="n"/>
+      <c r="M9" s="27" t="n"/>
+      <c r="N9" s="27" t="n"/>
+      <c r="O9" s="27" t="n"/>
+      <c r="P9" s="27" t="n"/>
+      <c r="Q9" s="27" t="n"/>
+      <c r="R9" s="27" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+      <c r="I10" s="27" t="n"/>
+      <c r="J10" s="27" t="n"/>
+      <c r="K10" s="27" t="n"/>
+      <c r="L10" s="27" t="n"/>
+      <c r="M10" s="27" t="n"/>
+      <c r="N10" s="27" t="n"/>
+      <c r="O10" s="27" t="n"/>
+      <c r="P10" s="27" t="n"/>
+      <c r="Q10" s="27" t="n"/>
+      <c r="R10" s="27" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+      <c r="I11" s="27" t="n"/>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+      <c r="L11" s="27" t="n"/>
+      <c r="M11" s="27" t="n"/>
+      <c r="N11" s="27" t="n"/>
+      <c r="O11" s="27" t="n"/>
+      <c r="P11" s="27" t="n"/>
+      <c r="Q11" s="27" t="n"/>
+      <c r="R11" s="27" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+      <c r="I12" s="27" t="n"/>
+      <c r="J12" s="27" t="n"/>
+      <c r="K12" s="27" t="n"/>
+      <c r="L12" s="27" t="n"/>
+      <c r="M12" s="27" t="n"/>
+      <c r="N12" s="27" t="n"/>
+      <c r="O12" s="27" t="n"/>
+      <c r="P12" s="27" t="n"/>
+      <c r="Q12" s="27" t="n"/>
+      <c r="R12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="29" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de
+Groupes</t>
+        </is>
+      </c>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+      <c r="I13" s="27" t="n"/>
+      <c r="J13" s="27" t="n"/>
+      <c r="K13" s="27" t="n"/>
+      <c r="L13" s="27" t="n"/>
+      <c r="M13" s="27" t="n"/>
+      <c r="N13" s="27" t="n"/>
+      <c r="O13" s="27" t="n"/>
+      <c r="P13" s="27" t="n"/>
+      <c r="Q13" s="27" t="n"/>
+      <c r="R13" s="27" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="29" t="inlineStr">
+        <is>
+          <t>Possibilité de changer de groupe de TDs au fil du module</t>
+        </is>
+      </c>
+      <c r="E14" s="57" t="n"/>
+      <c r="F14" s="57" t="n"/>
+      <c r="G14" s="57" t="n"/>
+      <c r="H14" s="57" t="n"/>
+      <c r="I14" s="31" t="inlineStr">
+        <is>
+          <t>si besoin</t>
+        </is>
+      </c>
+      <c r="J14" s="58" t="n"/>
+      <c r="K14" s="27" t="n"/>
+      <c r="L14" s="27" t="n"/>
+      <c r="M14" s="27" t="n"/>
+      <c r="N14" s="27" t="n"/>
+      <c r="O14" s="27" t="n"/>
+      <c r="P14" s="27" t="n"/>
+      <c r="Q14" s="27" t="n"/>
+      <c r="R14" s="27" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="9" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="32" t="inlineStr">
+        <is>
+          <t>Durée (pour ceux qui ont 4h par semaine : bloc de 4h ou 2*2h)</t>
+        </is>
+      </c>
+      <c r="E15" s="59" t="n"/>
+      <c r="F15" s="59" t="n"/>
+      <c r="G15" s="59" t="n"/>
+      <c r="H15" s="59" t="n"/>
+      <c r="I15" s="26" t="inlineStr">
+        <is>
+          <t>Au choix</t>
+        </is>
+      </c>
+      <c r="J15" s="60" t="n"/>
+      <c r="K15" s="27" t="n"/>
+      <c r="L15" s="27" t="n"/>
+      <c r="M15" s="27" t="n"/>
+      <c r="N15" s="27" t="n"/>
+      <c r="O15" s="27" t="n"/>
+      <c r="P15" s="27" t="n"/>
+      <c r="Q15" s="27" t="n"/>
+      <c r="R15" s="27" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="11" t="n"/>
+      <c r="C16" s="27" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="27" t="n"/>
+      <c r="F16" s="27" t="n"/>
+      <c r="G16" s="27" t="n"/>
+      <c r="H16" s="27" t="n"/>
+      <c r="I16" s="27" t="n"/>
+      <c r="J16" s="27" t="n"/>
+      <c r="K16" s="27" t="n"/>
+      <c r="L16" s="27" t="n"/>
+      <c r="M16" s="27" t="n"/>
+      <c r="N16" s="27" t="n"/>
+      <c r="O16" s="27" t="n"/>
+      <c r="P16" s="27" t="n"/>
+      <c r="Q16" s="27" t="n"/>
+      <c r="R16" s="27" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>TD</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="27" t="n"/>
+      <c r="F17" s="27" t="n"/>
+      <c r="G17" s="27" t="n"/>
+      <c r="H17" s="27" t="n"/>
+      <c r="I17" s="27" t="n"/>
+      <c r="J17" s="27" t="n"/>
+      <c r="K17" s="27" t="n"/>
+      <c r="L17" s="27" t="n"/>
+      <c r="M17" s="27" t="n"/>
+      <c r="N17" s="27" t="n"/>
+      <c r="O17" s="27" t="n"/>
+      <c r="P17" s="27" t="n"/>
+      <c r="Q17" s="27" t="n"/>
+      <c r="R17" s="27" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="n"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="27" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+      <c r="I18" s="27" t="n"/>
+      <c r="J18" s="27" t="n"/>
+      <c r="K18" s="27" t="n"/>
+      <c r="L18" s="27" t="n"/>
+      <c r="M18" s="27" t="n"/>
+      <c r="N18" s="27" t="n"/>
+      <c r="O18" s="27" t="n"/>
+      <c r="P18" s="27" t="n"/>
+      <c r="Q18" s="27" t="n"/>
+      <c r="R18" s="27" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="n"/>
+      <c r="B19" s="13" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="37" t="inlineStr">
+        <is>
+          <t>Test(s)</t>
+        </is>
+      </c>
+      <c r="E19" s="34" t="n"/>
+      <c r="F19" s="58" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+      <c r="I19" s="27" t="n"/>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="27" t="n"/>
+      <c r="L19" s="27" t="n"/>
+      <c r="M19" s="27" t="n"/>
+      <c r="N19" s="27" t="n"/>
+      <c r="O19" s="27" t="n"/>
+      <c r="P19" s="27" t="n"/>
+      <c r="Q19" s="27" t="n"/>
+      <c r="R19" s="27" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n"/>
+      <c r="B20" s="13" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
+        <is>
+          <t>Durée</t>
+        </is>
+      </c>
+      <c r="E20" s="35" t="n"/>
+      <c r="F20" s="61" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+      <c r="I20" s="27" t="n"/>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="27" t="n"/>
+      <c r="L20" s="27" t="n"/>
+      <c r="M20" s="27" t="n"/>
+      <c r="N20" s="27" t="n"/>
+      <c r="O20" s="27" t="n"/>
+      <c r="P20" s="27" t="n"/>
+      <c r="Q20" s="27" t="n"/>
+      <c r="R20" s="27" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
+        <is>
+          <t>Salle</t>
+        </is>
+      </c>
+      <c r="E21" s="35" t="n"/>
+      <c r="F21" s="61" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+      <c r="I21" s="27" t="n"/>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="27" t="n"/>
+      <c r="L21" s="27" t="n"/>
+      <c r="M21" s="27" t="n"/>
+      <c r="N21" s="27" t="n"/>
+      <c r="O21" s="27" t="n"/>
+      <c r="P21" s="27" t="n"/>
+      <c r="Q21" s="27" t="n"/>
+      <c r="R21" s="27" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>TP dédoublés</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="32" t="inlineStr">
+        <is>
+          <t>Payé en</t>
+        </is>
+      </c>
+      <c r="E22" s="26" t="n"/>
+      <c r="F22" s="60" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+      <c r="I22" s="27" t="n"/>
+      <c r="J22" s="27" t="n"/>
+      <c r="K22" s="27" t="n"/>
+      <c r="L22" s="27" t="n"/>
+      <c r="M22" s="27" t="n"/>
+      <c r="N22" s="27" t="n"/>
+      <c r="O22" s="27" t="n"/>
+      <c r="P22" s="27" t="n"/>
+      <c r="Q22" s="27" t="n"/>
+      <c r="R22" s="27" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="n"/>
+      <c r="B23" s="8" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+      <c r="I23" s="27" t="n"/>
+      <c r="J23" s="27" t="n"/>
+      <c r="K23" s="27" t="n"/>
+      <c r="L23" s="27" t="n"/>
+      <c r="M23" s="27" t="n"/>
+      <c r="N23" s="27" t="n"/>
+      <c r="O23" s="27" t="n"/>
+      <c r="P23" s="27" t="n"/>
+      <c r="Q23" s="27" t="n"/>
+      <c r="R23" s="27" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="n"/>
+      <c r="B24" s="8" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+      <c r="I24" s="27" t="n"/>
+      <c r="J24" s="27" t="n"/>
+      <c r="K24" s="27" t="n"/>
+      <c r="L24" s="27" t="n"/>
+      <c r="M24" s="27" t="n"/>
+      <c r="N24" s="27" t="n"/>
+      <c r="O24" s="27" t="n"/>
+      <c r="P24" s="27" t="n"/>
+      <c r="Q24" s="27" t="n"/>
+      <c r="R24" s="27" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n"/>
+      <c r="B25" s="8" t="n"/>
+      <c r="C25" s="27" t="n"/>
+      <c r="D25" s="27" t="n"/>
+      <c r="G25" s="27" t="n"/>
+      <c r="H25" s="27" t="n"/>
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="n"/>
+      <c r="K25" s="27" t="n"/>
+      <c r="L25" s="27" t="n"/>
+      <c r="M25" s="27" t="n"/>
+      <c r="N25" s="27" t="n"/>
+      <c r="O25" s="27" t="n"/>
+      <c r="P25" s="27" t="n"/>
+      <c r="Q25" s="27" t="n"/>
+      <c r="R25" s="27" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="27" t="n"/>
+      <c r="D26" s="27" t="n"/>
+      <c r="E26" s="27" t="n"/>
+      <c r="F26" s="27" t="n"/>
+      <c r="G26" s="27" t="n"/>
+      <c r="H26" s="27" t="n"/>
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
+      <c r="L26" s="27" t="n"/>
+      <c r="M26" s="27" t="n"/>
+      <c r="N26" s="27" t="n"/>
+      <c r="O26" s="27" t="n"/>
+      <c r="P26" s="27" t="n"/>
+      <c r="Q26" s="27" t="n"/>
+      <c r="R26" s="27" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>TP non dédoublés</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="37" t="inlineStr">
+        <is>
+          <t>Autres informations :</t>
+        </is>
+      </c>
+      <c r="E27" s="57" t="n"/>
+      <c r="F27" s="33" t="n"/>
+      <c r="G27" s="33" t="n"/>
+      <c r="H27" s="34" t="n"/>
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
+      <c r="L27" s="27" t="n"/>
+      <c r="M27" s="27" t="n"/>
+      <c r="N27" s="27" t="n"/>
+      <c r="O27" s="27" t="n"/>
+      <c r="P27" s="27" t="n"/>
+      <c r="Q27" s="27" t="n"/>
+      <c r="R27" s="27" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="n"/>
+      <c r="B28" s="13" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="62" t="inlineStr">
+        <is>
+          <t>* tous les intervenants, vactaires compris, surveillent l’examen
+* SN le lundi matin (ou exceptionnellement vendredi AM).
+1ère semaine = vendredi AM</t>
+        </is>
+      </c>
+      <c r="H28" s="61" t="n"/>
+      <c r="I28" s="27" t="n"/>
+      <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
+      <c r="L28" s="27" t="n"/>
+      <c r="M28" s="27" t="n"/>
+      <c r="N28" s="27" t="n"/>
+      <c r="O28" s="27" t="n"/>
+      <c r="P28" s="27" t="n"/>
+      <c r="Q28" s="27" t="n"/>
+      <c r="R28" s="27" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="13" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="63" t="n"/>
+      <c r="H29" s="61" t="n"/>
+      <c r="I29" s="27" t="n"/>
+      <c r="J29" s="27" t="n"/>
+      <c r="K29" s="27" t="n"/>
+      <c r="L29" s="27" t="n"/>
+      <c r="M29" s="27" t="n"/>
+      <c r="N29" s="27" t="n"/>
+      <c r="O29" s="27" t="n"/>
+      <c r="P29" s="27" t="n"/>
+      <c r="Q29" s="27" t="n"/>
+      <c r="R29" s="27" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="13" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="63" t="n"/>
+      <c r="H30" s="61" t="n"/>
+      <c r="I30" s="27" t="n"/>
+      <c r="J30" s="27" t="n"/>
+      <c r="K30" s="27" t="n"/>
+      <c r="L30" s="27" t="n"/>
+      <c r="M30" s="27" t="n"/>
+      <c r="N30" s="27" t="n"/>
+      <c r="O30" s="27" t="n"/>
+      <c r="P30" s="27" t="n"/>
+      <c r="Q30" s="27" t="n"/>
+      <c r="R30" s="27" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="64" t="n"/>
+      <c r="E31" s="59" t="n"/>
+      <c r="F31" s="59" t="n"/>
+      <c r="G31" s="59" t="n"/>
+      <c r="H31" s="60" t="n"/>
+      <c r="I31" s="27" t="n"/>
+      <c r="J31" s="27" t="n"/>
+      <c r="K31" s="27" t="n"/>
+      <c r="L31" s="27" t="n"/>
+      <c r="M31" s="27" t="n"/>
+      <c r="N31" s="27" t="n"/>
+      <c r="O31" s="27" t="n"/>
+      <c r="P31" s="27" t="n"/>
+      <c r="Q31" s="27" t="n"/>
+      <c r="R31" s="27" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+      <c r="I32" s="27" t="n"/>
+      <c r="J32" s="27" t="n"/>
+      <c r="K32" s="27" t="n"/>
+      <c r="L32" s="27" t="n"/>
+      <c r="M32" s="27" t="n"/>
+      <c r="N32" s="27" t="n"/>
+      <c r="O32" s="27" t="n"/>
+      <c r="P32" s="27" t="n"/>
+      <c r="Q32" s="27" t="n"/>
+      <c r="R32" s="27" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="36" t="inlineStr">
+        <is>
+          <t>Organisation détaillée</t>
+        </is>
+      </c>
+      <c r="B33" s="28" t="inlineStr">
+        <is>
+          <t>(toutes les informations doivent figurer ici)</t>
+        </is>
+      </c>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+      <c r="I33" s="27" t="n"/>
+      <c r="J33" s="27" t="n"/>
+      <c r="K33" s="27" t="n"/>
+      <c r="L33" s="27" t="n"/>
+      <c r="M33" s="27" t="n"/>
+      <c r="N33" s="27" t="n"/>
+      <c r="O33" s="27" t="n"/>
+      <c r="P33" s="27" t="n"/>
+      <c r="Q33" s="27" t="n"/>
+      <c r="R33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="n"/>
+      <c r="B34" s="28" t="n"/>
+      <c r="C34" s="27" t="n"/>
+      <c r="D34" s="27" t="n"/>
+      <c r="E34" s="27" t="n"/>
+      <c r="F34" s="27" t="n"/>
+      <c r="G34" s="27" t="n"/>
+      <c r="H34" s="27" t="n"/>
+      <c r="I34" s="27" t="n"/>
+      <c r="J34" s="27" t="n"/>
+      <c r="K34" s="27" t="n"/>
+      <c r="L34" s="27" t="n"/>
+      <c r="M34" s="27" t="n"/>
+      <c r="N34" s="27" t="n"/>
+      <c r="O34" s="27" t="n"/>
+      <c r="P34" s="27" t="n"/>
+      <c r="Q34" s="27" t="n"/>
+      <c r="R34" s="27" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="n"/>
+      <c r="E35" s="27" t="n"/>
+      <c r="F35" s="27" t="n"/>
+      <c r="G35" s="27" t="n"/>
+      <c r="H35" s="27" t="n"/>
+      <c r="I35" s="27" t="n"/>
+      <c r="J35" s="27" t="n"/>
+      <c r="K35" s="27" t="n"/>
+      <c r="L35" s="27" t="n"/>
+      <c r="M35" s="27" t="n"/>
+      <c r="N35" s="27" t="n"/>
+      <c r="O35" s="27" t="n"/>
+      <c r="P35" s="27" t="n"/>
+      <c r="Q35" s="27" t="n"/>
+      <c r="R35" s="27" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+      <c r="I36" s="27" t="n"/>
+      <c r="J36" s="27" t="n"/>
+      <c r="K36" s="27" t="n"/>
+      <c r="L36" s="27" t="n"/>
+      <c r="M36" s="27" t="n"/>
+      <c r="N36" s="27" t="n"/>
+      <c r="O36" s="27" t="n"/>
+      <c r="P36" s="27" t="n"/>
+      <c r="Q36" s="27" t="n"/>
+      <c r="R36" s="27" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S6AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S6AFI.xlsx
@@ -3268,10 +3268,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -3288,10 +3296,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -3308,10 +3324,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5027,10 +5051,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5047,10 +5079,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -5067,10 +5107,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -6786,10 +6834,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -6806,10 +6862,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8545,10 +8609,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8565,10 +8637,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10304,10 +10384,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -10324,10 +10416,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -10344,10 +10448,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -12063,10 +12179,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -12083,10 +12211,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-12</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12103,10 +12243,22 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S6AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S6AFI.xlsx
@@ -7,12 +7,12 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R6.01 Initiation à l'entrprenar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R6.02 Droit du numérique et de " sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R6.03 Communication   organisat" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R6.04 PPP" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R6.A.05 Développement avancé" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R6.A.06 Maintenance applicative" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R6.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R6.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R6.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R6.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R6.A.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R6.A.06" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Frédéric FLOUVAT</t>
+          <t>FrÃ©dÃ©ric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S6AFI.xlsx
+++ b/SAE_3_01/fichiers genere/S6AFI.xlsx
@@ -9647,7 +9647,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>FrÃ©dÃ©ric FLOUVAT</t>
+          <t>Frédéric FLOUVAT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
